--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3909965.416868226</v>
+        <v>3907058.761752735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6697752.420846988</v>
+        <v>6697752.420846986</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234742.4228213833</v>
+        <v>234742.4228213836</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>157.5243183694689</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>134.9940489328384</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,64 +904,64 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>175.0426595591497</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.02902583710346</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,67 +1138,67 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>186.0850531309659</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>82.67210352336349</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>328.0324653996846</v>
+        <v>328.0324653996847</v>
       </c>
       <c r="C11" t="n">
-        <v>310.5715155072115</v>
+        <v>310.5715155072116</v>
       </c>
       <c r="D11" t="n">
         <v>299.981665356887</v>
       </c>
       <c r="E11" t="n">
-        <v>327.2289938084658</v>
+        <v>327.2289938084659</v>
       </c>
       <c r="F11" t="n">
         <v>352.1746694779155</v>
@@ -1390,7 +1390,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I11" t="n">
-        <v>1.557006034221246</v>
+        <v>1.557006034221359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.16425594563677</v>
+        <v>63.16425594563722</v>
       </c>
       <c r="T11" t="n">
-        <v>150.8836208761117</v>
+        <v>150.8836208761118</v>
       </c>
       <c r="U11" t="n">
-        <v>196.3242610657576</v>
+        <v>196.3242610657571</v>
       </c>
       <c r="V11" t="n">
-        <v>273.0508822063389</v>
+        <v>273.050882206339</v>
       </c>
       <c r="W11" t="n">
-        <v>294.539592453617</v>
+        <v>294.5395924536171</v>
       </c>
       <c r="X11" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y11" t="n">
-        <v>331.5365623922576</v>
+        <v>331.5365623922577</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>91.56472100936494</v>
       </c>
       <c r="I12" t="n">
-        <v>15.70672488911607</v>
+        <v>15.70672488911609</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.1306039181413</v>
+        <v>125.1306039181414</v>
       </c>
       <c r="C13" t="n">
-        <v>112.5454448348318</v>
+        <v>112.5454448348319</v>
       </c>
       <c r="D13" t="n">
-        <v>93.91409675441636</v>
+        <v>93.91409675441643</v>
       </c>
       <c r="E13" t="n">
-        <v>91.73258638277318</v>
+        <v>91.73258638277325</v>
       </c>
       <c r="F13" t="n">
-        <v>90.71967175913525</v>
+        <v>90.71967175913532</v>
       </c>
       <c r="G13" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H13" t="n">
-        <v>91.57239668504357</v>
+        <v>91.57239668504364</v>
       </c>
       <c r="I13" t="n">
-        <v>46.78811119940419</v>
+        <v>46.78811119940427</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.91153022908352</v>
+        <v>41.91153022908307</v>
       </c>
       <c r="S13" t="n">
-        <v>138.0446011659818</v>
+        <v>138.0446011659819</v>
       </c>
       <c r="T13" t="n">
-        <v>165.5774465054446</v>
+        <v>165.5774465054447</v>
       </c>
       <c r="U13" t="n">
-        <v>231.519779475771</v>
+        <v>231.5197794757711</v>
       </c>
       <c r="V13" t="n">
-        <v>197.436267060032</v>
+        <v>197.4362670600321</v>
       </c>
       <c r="W13" t="n">
-        <v>231.821622072795</v>
+        <v>231.8216220727951</v>
       </c>
       <c r="X13" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8832770883</v>
+        <v>163.8832770882989</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>328.0324653996846</v>
+        <v>328.0324653996847</v>
       </c>
       <c r="C14" t="n">
-        <v>310.5715155072115</v>
+        <v>310.5715155072116</v>
       </c>
       <c r="D14" t="n">
         <v>299.981665356887</v>
       </c>
       <c r="E14" t="n">
-        <v>327.2289938084658</v>
+        <v>327.2289938084659</v>
       </c>
       <c r="F14" t="n">
         <v>352.1746694779155</v>
@@ -1627,7 +1627,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I14" t="n">
-        <v>1.557006034221246</v>
+        <v>1.557006034221331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.16425594563704</v>
+        <v>63.16425594563633</v>
       </c>
       <c r="T14" t="n">
-        <v>150.8836208761111</v>
+        <v>150.8836208761118</v>
       </c>
       <c r="U14" t="n">
-        <v>196.3242610657571</v>
+        <v>196.3242610657576</v>
       </c>
       <c r="V14" t="n">
-        <v>273.0508822063389</v>
+        <v>273.050882206339</v>
       </c>
       <c r="W14" t="n">
-        <v>294.539592453617</v>
+        <v>294.5395924536171</v>
       </c>
       <c r="X14" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y14" t="n">
-        <v>331.5365623922576</v>
+        <v>331.5365623922577</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125.1306039181413</v>
+        <v>125.1306039181414</v>
       </c>
       <c r="C16" t="n">
-        <v>112.5454448348331</v>
+        <v>112.5454448348319</v>
       </c>
       <c r="D16" t="n">
-        <v>93.91409675441636</v>
+        <v>93.91409675441643</v>
       </c>
       <c r="E16" t="n">
-        <v>91.73258638277318</v>
+        <v>91.73258638277325</v>
       </c>
       <c r="F16" t="n">
-        <v>90.71967175913525</v>
+        <v>90.71967175913532</v>
       </c>
       <c r="G16" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H16" t="n">
-        <v>91.57239668504357</v>
+        <v>91.57239668504364</v>
       </c>
       <c r="I16" t="n">
-        <v>46.78811119940419</v>
+        <v>46.78811119940426</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.91153022908352</v>
+        <v>41.91153022908217</v>
       </c>
       <c r="S16" t="n">
-        <v>138.0446011659818</v>
+        <v>138.0446011659819</v>
       </c>
       <c r="T16" t="n">
-        <v>165.5774465054446</v>
+        <v>165.5774465054447</v>
       </c>
       <c r="U16" t="n">
-        <v>231.519779475771</v>
+        <v>231.5197794757711</v>
       </c>
       <c r="V16" t="n">
-        <v>197.436267060032</v>
+        <v>197.4362670600321</v>
       </c>
       <c r="W16" t="n">
-        <v>231.821622072795</v>
+        <v>231.8216220727951</v>
       </c>
       <c r="X16" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8832770882988</v>
+        <v>163.8832770882989</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.0324653996846</v>
+        <v>328.0324653996847</v>
       </c>
       <c r="C17" t="n">
-        <v>310.5715155072115</v>
+        <v>310.5715155072116</v>
       </c>
       <c r="D17" t="n">
         <v>299.981665356887</v>
       </c>
       <c r="E17" t="n">
-        <v>327.2289938084658</v>
+        <v>327.2289938084659</v>
       </c>
       <c r="F17" t="n">
         <v>352.1746694779155</v>
@@ -1864,7 +1864,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I17" t="n">
-        <v>1.557006034221246</v>
+        <v>1.557006034221331</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.16425594563677</v>
+        <v>63.16425594563709</v>
       </c>
       <c r="T17" t="n">
-        <v>150.8836208761117</v>
+        <v>150.8836208761118</v>
       </c>
       <c r="U17" t="n">
-        <v>196.3242610657576</v>
+        <v>196.3242610657567</v>
       </c>
       <c r="V17" t="n">
-        <v>273.0508822063389</v>
+        <v>273.050882206339</v>
       </c>
       <c r="W17" t="n">
-        <v>294.539592453617</v>
+        <v>294.5395924536171</v>
       </c>
       <c r="X17" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.5365623922576</v>
+        <v>331.5365623922577</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.1306039181413</v>
+        <v>125.1306039181414</v>
       </c>
       <c r="C19" t="n">
-        <v>112.5454448348318</v>
+        <v>112.5454448348319</v>
       </c>
       <c r="D19" t="n">
-        <v>93.91409675441636</v>
+        <v>93.91409675441643</v>
       </c>
       <c r="E19" t="n">
-        <v>91.73258638277318</v>
+        <v>91.73258638277325</v>
       </c>
       <c r="F19" t="n">
-        <v>90.71967175913525</v>
+        <v>90.71967175913532</v>
       </c>
       <c r="G19" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H19" t="n">
-        <v>91.57239668504357</v>
+        <v>91.57239668504364</v>
       </c>
       <c r="I19" t="n">
-        <v>46.78811119940419</v>
+        <v>46.78811119940426</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.91153022908352</v>
+        <v>41.91153022908217</v>
       </c>
       <c r="S19" t="n">
-        <v>138.0446011659818</v>
+        <v>138.0446011659819</v>
       </c>
       <c r="T19" t="n">
-        <v>165.5774465054457</v>
+        <v>165.5774465054447</v>
       </c>
       <c r="U19" t="n">
-        <v>231.519779475771</v>
+        <v>231.5197794757711</v>
       </c>
       <c r="V19" t="n">
-        <v>197.436267060032</v>
+        <v>197.4362670600321</v>
       </c>
       <c r="W19" t="n">
-        <v>231.821622072795</v>
+        <v>231.8216220727951</v>
       </c>
       <c r="X19" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y19" t="n">
-        <v>163.8832770882988</v>
+        <v>163.8832770882989</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>328.0324653996846</v>
+        <v>328.0324653996847</v>
       </c>
       <c r="C20" t="n">
-        <v>310.5715155072115</v>
+        <v>310.5715155072116</v>
       </c>
       <c r="D20" t="n">
         <v>299.981665356887</v>
       </c>
       <c r="E20" t="n">
-        <v>327.2289938084658</v>
+        <v>327.2289938084659</v>
       </c>
       <c r="F20" t="n">
         <v>352.1746694779155</v>
@@ -2101,7 +2101,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I20" t="n">
-        <v>1.557006034221246</v>
+        <v>1.557006034221331</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.16425594563704</v>
+        <v>63.16425594563709</v>
       </c>
       <c r="T20" t="n">
-        <v>150.8836208761117</v>
+        <v>150.8836208761118</v>
       </c>
       <c r="U20" t="n">
-        <v>196.3242610657567</v>
+        <v>196.3242610657571</v>
       </c>
       <c r="V20" t="n">
-        <v>273.0508822063389</v>
+        <v>273.050882206339</v>
       </c>
       <c r="W20" t="n">
-        <v>294.539592453617</v>
+        <v>294.5395924536171</v>
       </c>
       <c r="X20" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y20" t="n">
-        <v>331.5365623922576</v>
+        <v>331.5365623922577</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.1306039181413</v>
+        <v>125.1306039181414</v>
       </c>
       <c r="C22" t="n">
-        <v>112.5454448348318</v>
+        <v>112.5454448348319</v>
       </c>
       <c r="D22" t="n">
-        <v>93.91409675441636</v>
+        <v>93.91409675441643</v>
       </c>
       <c r="E22" t="n">
-        <v>91.73258638277318</v>
+        <v>91.73258638277325</v>
       </c>
       <c r="F22" t="n">
-        <v>90.71967175913525</v>
+        <v>90.71967175913532</v>
       </c>
       <c r="G22" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H22" t="n">
-        <v>91.57239668504471</v>
+        <v>91.57239668504364</v>
       </c>
       <c r="I22" t="n">
-        <v>46.78811119940419</v>
+        <v>46.78811119940426</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.91153022908352</v>
+        <v>41.9115302290836</v>
       </c>
       <c r="S22" t="n">
-        <v>138.0446011659818</v>
+        <v>138.0446011659819</v>
       </c>
       <c r="T22" t="n">
-        <v>165.5774465054446</v>
+        <v>165.5774465054447</v>
       </c>
       <c r="U22" t="n">
-        <v>231.519779475771</v>
+        <v>231.5197794757711</v>
       </c>
       <c r="V22" t="n">
-        <v>197.436267060032</v>
+        <v>197.4362670600311</v>
       </c>
       <c r="W22" t="n">
-        <v>231.821622072795</v>
+        <v>231.8216220727951</v>
       </c>
       <c r="X22" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.8832770882988</v>
+        <v>163.8832770882989</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>328.0324653996846</v>
+        <v>328.0324653996847</v>
       </c>
       <c r="C23" t="n">
-        <v>310.5715155072115</v>
+        <v>310.5715155072116</v>
       </c>
       <c r="D23" t="n">
         <v>299.981665356887</v>
       </c>
       <c r="E23" t="n">
-        <v>327.2289938084658</v>
+        <v>327.2289938084659</v>
       </c>
       <c r="F23" t="n">
         <v>352.1746694779155</v>
@@ -2338,7 +2338,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I23" t="n">
-        <v>1.557006034221246</v>
+        <v>1.557006034221365</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.16425594563704</v>
+        <v>63.16425594563709</v>
       </c>
       <c r="T23" t="n">
-        <v>150.8836208761111</v>
+        <v>150.8836208761118</v>
       </c>
       <c r="U23" t="n">
-        <v>196.3242610657571</v>
+        <v>196.3242610657567</v>
       </c>
       <c r="V23" t="n">
-        <v>273.0508822063389</v>
+        <v>273.050882206339</v>
       </c>
       <c r="W23" t="n">
-        <v>294.539592453617</v>
+        <v>294.5395924536171</v>
       </c>
       <c r="X23" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y23" t="n">
-        <v>331.5365623922576</v>
+        <v>331.5365623922577</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.1306039181413</v>
+        <v>125.1306039181414</v>
       </c>
       <c r="C25" t="n">
-        <v>112.5454448348318</v>
+        <v>112.5454448348319</v>
       </c>
       <c r="D25" t="n">
-        <v>93.91409675441636</v>
+        <v>93.91409675441643</v>
       </c>
       <c r="E25" t="n">
-        <v>91.73258638277318</v>
+        <v>91.73258638277325</v>
       </c>
       <c r="F25" t="n">
-        <v>90.71967175913525</v>
+        <v>90.71967175913532</v>
       </c>
       <c r="G25" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H25" t="n">
-        <v>91.57239668504357</v>
+        <v>91.57239668504364</v>
       </c>
       <c r="I25" t="n">
-        <v>46.78811119940419</v>
+        <v>46.78811119940426</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.91153022908352</v>
+        <v>41.9115302290836</v>
       </c>
       <c r="S25" t="n">
-        <v>138.044601165982</v>
+        <v>138.0446011659807</v>
       </c>
       <c r="T25" t="n">
-        <v>165.5774465054446</v>
+        <v>165.5774465054447</v>
       </c>
       <c r="U25" t="n">
         <v>231.5197794757711</v>
       </c>
       <c r="V25" t="n">
-        <v>197.436267060032</v>
+        <v>197.4362670600321</v>
       </c>
       <c r="W25" t="n">
-        <v>231.821622072795</v>
+        <v>231.8216220727951</v>
       </c>
       <c r="X25" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y25" t="n">
-        <v>163.8832770882988</v>
+        <v>163.8832770882989</v>
       </c>
     </row>
     <row r="26">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>97.4117385155496</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.1966297148534</v>
       </c>
       <c r="H28" t="n">
-        <v>146.2737729488396</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>101.4894874632002</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>96.61290649287952</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.2788227692406</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2211557395669</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>34.99935264663033</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,10 +2845,10 @@
         <v>117.865632209433</v>
       </c>
       <c r="T29" t="n">
-        <v>205.5849971399077</v>
+        <v>205.5849971399076</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0256373295526</v>
+        <v>251.0256373295523</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1966297148534</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>192.7459774297778</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.2788227692406</v>
       </c>
       <c r="U31" t="n">
         <v>286.2211557395669</v>
       </c>
       <c r="V31" t="n">
-        <v>145.8845228855711</v>
+        <v>117.6410057535013</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>117.865632209433</v>
+        <v>117.8656322094328</v>
       </c>
       <c r="T32" t="n">
         <v>205.5849971399077</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0256373295523</v>
+        <v>251.0256373295531</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>88.9664442451178</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>96.61290649287952</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>192.7459774297778</v>
@@ -3243,13 +3243,13 @@
         <v>220.2788227692406</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2211557395669</v>
+        <v>100.386685915773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,10 +3268,10 @@
         <v>328.0324653996846</v>
       </c>
       <c r="C35" t="n">
-        <v>310.5715155072116</v>
+        <v>310.5715155072115</v>
       </c>
       <c r="D35" t="n">
-        <v>299.981665356887</v>
+        <v>299.9816653568871</v>
       </c>
       <c r="E35" t="n">
         <v>327.2289938084658</v>
@@ -3286,7 +3286,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I35" t="n">
-        <v>1.557006034221274</v>
+        <v>1.557006034221246</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.16425594563707</v>
+        <v>63.16425594563704</v>
       </c>
       <c r="T35" t="n">
-        <v>150.8836208761118</v>
+        <v>150.8836208761117</v>
       </c>
       <c r="U35" t="n">
-        <v>196.3242610657571</v>
+        <v>196.3242610657566</v>
       </c>
       <c r="V35" t="n">
         <v>273.0508822063389</v>
@@ -3426,25 +3426,25 @@
         <v>125.1306039181413</v>
       </c>
       <c r="C37" t="n">
-        <v>112.5454448348319</v>
+        <v>112.5454448348331</v>
       </c>
       <c r="D37" t="n">
-        <v>93.91409675441639</v>
+        <v>93.91409675441636</v>
       </c>
       <c r="E37" t="n">
-        <v>91.73258638277321</v>
+        <v>91.73258638277318</v>
       </c>
       <c r="F37" t="n">
-        <v>90.71967175913557</v>
+        <v>90.71967175913525</v>
       </c>
       <c r="G37" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H37" t="n">
-        <v>91.5723966850436</v>
+        <v>91.57239668504357</v>
       </c>
       <c r="I37" t="n">
-        <v>46.78811119940422</v>
+        <v>46.78811119940419</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.91153022908355</v>
+        <v>41.91153022908352</v>
       </c>
       <c r="S37" t="n">
         <v>138.0446011659818</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>328.0324653996846</v>
+        <v>328.0324653996847</v>
       </c>
       <c r="C38" t="n">
-        <v>310.5715155072116</v>
+        <v>310.5715155072115</v>
       </c>
       <c r="D38" t="n">
         <v>299.981665356887</v>
@@ -3523,7 +3523,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I38" t="n">
-        <v>1.557006034221274</v>
+        <v>1.557006034221246</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.16425594563707</v>
+        <v>63.16425594563704</v>
       </c>
       <c r="T38" t="n">
-        <v>150.8836208761118</v>
+        <v>150.8836208761117</v>
       </c>
       <c r="U38" t="n">
-        <v>196.3242610657571</v>
+        <v>196.3242610657566</v>
       </c>
       <c r="V38" t="n">
         <v>273.0508822063389</v>
@@ -3663,25 +3663,25 @@
         <v>125.1306039181413</v>
       </c>
       <c r="C40" t="n">
-        <v>112.5454448348319</v>
+        <v>112.5454448348318</v>
       </c>
       <c r="D40" t="n">
-        <v>93.91409675441639</v>
+        <v>93.91409675441636</v>
       </c>
       <c r="E40" t="n">
-        <v>91.73258638277321</v>
+        <v>91.73258638277318</v>
       </c>
       <c r="F40" t="n">
-        <v>90.71967175913528</v>
+        <v>90.71967175913525</v>
       </c>
       <c r="G40" t="n">
-        <v>111.4952534510575</v>
+        <v>111.4952534510574</v>
       </c>
       <c r="H40" t="n">
-        <v>91.57239668504359</v>
+        <v>91.57239668504357</v>
       </c>
       <c r="I40" t="n">
-        <v>46.78811119940422</v>
+        <v>46.7881111994042</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.91153022908355</v>
+        <v>41.91153022908397</v>
       </c>
       <c r="S40" t="n">
         <v>138.0446011659818</v>
@@ -3717,7 +3717,7 @@
         <v>165.5774465054446</v>
       </c>
       <c r="U40" t="n">
-        <v>231.5197794757707</v>
+        <v>231.5197794757709</v>
       </c>
       <c r="V40" t="n">
         <v>197.436267060032</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328.0324653996847</v>
+        <v>328.0324653996846</v>
       </c>
       <c r="C41" t="n">
         <v>310.5715155072116</v>
@@ -3748,7 +3748,7 @@
         <v>299.981665356887</v>
       </c>
       <c r="E41" t="n">
-        <v>327.2289938084659</v>
+        <v>327.2289938084658</v>
       </c>
       <c r="F41" t="n">
         <v>352.1746694779155</v>
@@ -3760,7 +3760,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I41" t="n">
-        <v>1.557006034221303</v>
+        <v>1.557006034221246</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.16425594563709</v>
+        <v>63.16425594563677</v>
       </c>
       <c r="T41" t="n">
-        <v>150.8836208761118</v>
+        <v>150.8836208761117</v>
       </c>
       <c r="U41" t="n">
-        <v>196.3242610657562</v>
+        <v>196.3242610657571</v>
       </c>
       <c r="V41" t="n">
-        <v>273.050882206339</v>
+        <v>273.0508822063389</v>
       </c>
       <c r="W41" t="n">
-        <v>294.5395924536171</v>
+        <v>294.539592453617</v>
       </c>
       <c r="X41" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.5365623922577</v>
+        <v>331.5365623922576</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.1306039181414</v>
+        <v>125.1306039181413</v>
       </c>
       <c r="C43" t="n">
-        <v>112.5454448348319</v>
+        <v>112.5454448348318</v>
       </c>
       <c r="D43" t="n">
-        <v>93.91409675441642</v>
+        <v>93.91409675441636</v>
       </c>
       <c r="E43" t="n">
-        <v>91.73258638277323</v>
+        <v>91.73258638277318</v>
       </c>
       <c r="F43" t="n">
-        <v>90.71967175913531</v>
+        <v>90.71967175913525</v>
       </c>
       <c r="G43" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H43" t="n">
-        <v>91.57239668504363</v>
+        <v>91.57239668504357</v>
       </c>
       <c r="I43" t="n">
-        <v>46.78811119940425</v>
+        <v>46.78811119940419</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.91153022908358</v>
+        <v>41.91153022908352</v>
       </c>
       <c r="S43" t="n">
         <v>138.0446011659818</v>
       </c>
       <c r="T43" t="n">
-        <v>165.5774465054447</v>
+        <v>165.5774465054446</v>
       </c>
       <c r="U43" t="n">
         <v>231.519779475771</v>
       </c>
       <c r="V43" t="n">
-        <v>197.4362670600321</v>
+        <v>197.436267060032</v>
       </c>
       <c r="W43" t="n">
-        <v>231.8216220727951</v>
+        <v>231.821622072795</v>
       </c>
       <c r="X43" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.8832770882989</v>
+        <v>163.8832770882988</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>328.0324653996847</v>
+        <v>328.0324653996846</v>
       </c>
       <c r="C44" t="n">
         <v>310.5715155072116</v>
@@ -3985,7 +3985,7 @@
         <v>299.981665356887</v>
       </c>
       <c r="E44" t="n">
-        <v>327.2289938084659</v>
+        <v>327.2289938084658</v>
       </c>
       <c r="F44" t="n">
         <v>352.1746694779155</v>
@@ -3997,7 +3997,7 @@
         <v>243.8064315882179</v>
       </c>
       <c r="I44" t="n">
-        <v>1.557006034221303</v>
+        <v>1.557006034221246</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.16425594563722</v>
+        <v>63.16425594563704</v>
       </c>
       <c r="T44" t="n">
-        <v>150.8836208761118</v>
+        <v>150.8836208761117</v>
       </c>
       <c r="U44" t="n">
         <v>196.3242610657567</v>
       </c>
       <c r="V44" t="n">
-        <v>273.050882206339</v>
+        <v>273.0508822063389</v>
       </c>
       <c r="W44" t="n">
-        <v>294.5395924536171</v>
+        <v>294.539592453617</v>
       </c>
       <c r="X44" t="n">
         <v>315.0297244146731</v>
       </c>
       <c r="Y44" t="n">
-        <v>331.5365623922577</v>
+        <v>331.5365623922576</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.1306039181414</v>
+        <v>125.1306039181413</v>
       </c>
       <c r="C46" t="n">
-        <v>112.5454448348319</v>
+        <v>112.5454448348331</v>
       </c>
       <c r="D46" t="n">
-        <v>93.91409675441642</v>
+        <v>93.91409675441636</v>
       </c>
       <c r="E46" t="n">
-        <v>91.73258638277323</v>
+        <v>91.73258638277318</v>
       </c>
       <c r="F46" t="n">
-        <v>90.71967175913531</v>
+        <v>90.71967175913525</v>
       </c>
       <c r="G46" t="n">
         <v>111.4952534510575</v>
       </c>
       <c r="H46" t="n">
-        <v>91.57239668504363</v>
+        <v>91.57239668504357</v>
       </c>
       <c r="I46" t="n">
-        <v>46.78811119940351</v>
+        <v>46.78811119940419</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.91153022908358</v>
+        <v>41.91153022908352</v>
       </c>
       <c r="S46" t="n">
         <v>138.0446011659818</v>
       </c>
       <c r="T46" t="n">
-        <v>165.5774465054447</v>
+        <v>165.5774465054446</v>
       </c>
       <c r="U46" t="n">
         <v>231.519779475771</v>
       </c>
       <c r="V46" t="n">
-        <v>197.4362670600321</v>
+        <v>197.436267060032</v>
       </c>
       <c r="W46" t="n">
-        <v>231.8216220727951</v>
+        <v>231.821622072795</v>
       </c>
       <c r="X46" t="n">
         <v>171.0082791252412</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.8832770882989</v>
+        <v>163.8832770882988</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.810259228364</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C2" t="n">
-        <v>251.810259228364</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D2" t="n">
-        <v>251.810259228364</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W2" t="n">
-        <v>495.259035872464</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X2" t="n">
-        <v>251.810259228364</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.810259228364</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.752636919763</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="C3" t="n">
-        <v>417.752636919763</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D3" t="n">
-        <v>268.8182272585117</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="W3" t="n">
-        <v>625.5129356847169</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="X3" t="n">
-        <v>625.5129356847169</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="Y3" t="n">
-        <v>417.752636919763</v>
+        <v>703.7721529630483</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E5" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>515.0172522330638</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>366.0828425718125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0828425718125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>219.5482845986975</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>219.5482845986975</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>106.1791490062768</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>466.4486707798429</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>466.4486707798429</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>466.4486707798429</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>307.2112157743874</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>307.2112157743874</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>634.6640077999109</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1043.028390446998</v>
       </c>
       <c r="F11" t="n">
-        <v>687.2964010753666</v>
+        <v>687.2964010753665</v>
       </c>
       <c r="G11" t="n">
-        <v>327.0932025674979</v>
+        <v>327.0932025674977</v>
       </c>
       <c r="H11" t="n">
-        <v>80.8240797511158</v>
+        <v>80.82407975111593</v>
       </c>
       <c r="I11" t="n">
         <v>79.25134638321556</v>
@@ -5053,13 +5053,13 @@
         <v>1825.884932410618</v>
       </c>
       <c r="N11" t="n">
-        <v>2556.008221249103</v>
+        <v>2738.366553060674</v>
       </c>
       <c r="O11" t="n">
-        <v>2995.45892341576</v>
+        <v>3177.817255227331</v>
       </c>
       <c r="P11" t="n">
-        <v>3654.599650894493</v>
+        <v>3518.377261616296</v>
       </c>
       <c r="Q11" t="n">
         <v>3862.173286126467</v>
@@ -5068,7 +5068,7 @@
         <v>3962.567319160778</v>
       </c>
       <c r="S11" t="n">
-        <v>3898.765040427812</v>
+        <v>3898.765040427811</v>
       </c>
       <c r="T11" t="n">
         <v>3746.357342573153</v>
@@ -5114,31 +5114,31 @@
         <v>187.6063422402671</v>
       </c>
       <c r="H12" t="n">
-        <v>95.11672505909038</v>
+        <v>95.1167250590904</v>
       </c>
       <c r="I12" t="n">
         <v>79.25134638321556</v>
       </c>
       <c r="J12" t="n">
-        <v>153.8707283834352</v>
+        <v>278.7008533704399</v>
       </c>
       <c r="K12" t="n">
-        <v>359.5619621470341</v>
+        <v>484.3920871340388</v>
       </c>
       <c r="L12" t="n">
-        <v>682.4617509722041</v>
+        <v>807.2918759592087</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.627442504335</v>
+        <v>1203.457567491339</v>
       </c>
       <c r="N12" t="n">
-        <v>1499.687105979262</v>
+        <v>1624.517230966267</v>
       </c>
       <c r="O12" t="n">
-        <v>1969.516663571205</v>
+        <v>1987.484767164805</v>
       </c>
       <c r="P12" t="n">
-        <v>2241.497044910502</v>
+        <v>2259.465148504102</v>
       </c>
       <c r="Q12" t="n">
         <v>2581.366045528469</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.4711050364093</v>
+        <v>724.4711050364099</v>
       </c>
       <c r="C13" t="n">
-        <v>610.7888375264781</v>
+        <v>610.7888375264787</v>
       </c>
       <c r="D13" t="n">
-        <v>515.9261135321182</v>
+        <v>515.9261135321186</v>
       </c>
       <c r="E13" t="n">
-        <v>423.2669353677009</v>
+        <v>423.2669353677012</v>
       </c>
       <c r="F13" t="n">
-        <v>331.6309032877663</v>
+        <v>331.6309032877665</v>
       </c>
       <c r="G13" t="n">
-        <v>219.009435155385</v>
+        <v>219.0094351553852</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5120647664521</v>
+        <v>126.5120647664522</v>
       </c>
       <c r="I13" t="n">
         <v>79.25134638321556</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5720351737345</v>
+        <v>166.5720351737344</v>
       </c>
       <c r="K13" t="n">
-        <v>405.065696774752</v>
+        <v>405.0656967747518</v>
       </c>
       <c r="L13" t="n">
-        <v>750.6373309273154</v>
+        <v>750.637330927315</v>
       </c>
       <c r="M13" t="n">
-        <v>1122.439469762874</v>
+        <v>1122.439469762873</v>
       </c>
       <c r="N13" t="n">
-        <v>1492.123270876743</v>
+        <v>1492.123270876742</v>
       </c>
       <c r="O13" t="n">
-        <v>1821.70384434178</v>
+        <v>1821.703844341779</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.012229441909</v>
+        <v>2088.012229441908</v>
       </c>
       <c r="Q13" t="n">
-        <v>2205.615960229127</v>
+        <v>2205.615960229125</v>
       </c>
       <c r="R13" t="n">
-        <v>2163.281081209851</v>
+        <v>2163.28108120985</v>
       </c>
       <c r="S13" t="n">
         <v>2023.842090133101</v>
@@ -5241,10 +5241,10 @@
         <v>1189.13995365427</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.404318174229</v>
+        <v>1016.404318174228</v>
       </c>
       <c r="Y13" t="n">
-        <v>850.8656544486732</v>
+        <v>850.8656544486739</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1990.283112338477</v>
+        <v>1990.283112338478</v>
       </c>
       <c r="C14" t="n">
-        <v>1676.574510816041</v>
+        <v>1676.574510816042</v>
       </c>
       <c r="D14" t="n">
-        <v>1373.562727627266</v>
+        <v>1373.562727627267</v>
       </c>
       <c r="E14" t="n">
         <v>1043.028390446998</v>
       </c>
       <c r="F14" t="n">
-        <v>687.2964010753661</v>
+        <v>687.2964010753662</v>
       </c>
       <c r="G14" t="n">
         <v>327.0932025674974</v>
       </c>
       <c r="H14" t="n">
-        <v>80.82407975111578</v>
+        <v>80.8240797511159</v>
       </c>
       <c r="I14" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J14" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K14" t="n">
-        <v>521.9947329356955</v>
+        <v>1010.304340401502</v>
       </c>
       <c r="L14" t="n">
-        <v>913.5341044446629</v>
+        <v>1401.843711910469</v>
       </c>
       <c r="M14" t="n">
-        <v>1825.884932410618</v>
+        <v>1869.17614171852</v>
       </c>
       <c r="N14" t="n">
-        <v>2738.366553060674</v>
+        <v>2348.684307200712</v>
       </c>
       <c r="O14" t="n">
-        <v>3379.098900179779</v>
+        <v>2788.135009367369</v>
       </c>
       <c r="P14" t="n">
-        <v>3719.658906568744</v>
+        <v>3447.275736846101</v>
       </c>
       <c r="Q14" t="n">
-        <v>3927.232541800718</v>
+        <v>3862.173286126467</v>
       </c>
       <c r="R14" t="n">
-        <v>3962.567319160777</v>
+        <v>3962.567319160778</v>
       </c>
       <c r="S14" t="n">
-        <v>3898.76504042781</v>
+        <v>3898.765040427812</v>
       </c>
       <c r="T14" t="n">
-        <v>3746.357342573152</v>
+        <v>3746.357342573153</v>
       </c>
       <c r="U14" t="n">
-        <v>3548.050008163296</v>
+        <v>3548.050008163297</v>
       </c>
       <c r="V14" t="n">
-        <v>3272.241036237701</v>
+        <v>3272.241036237702</v>
       </c>
       <c r="W14" t="n">
-        <v>2974.726296385563</v>
+        <v>2974.726296385564</v>
       </c>
       <c r="X14" t="n">
-        <v>2656.514453542459</v>
+        <v>2656.51445354246</v>
       </c>
       <c r="Y14" t="n">
-        <v>2321.629036984623</v>
+        <v>2321.629036984624</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>187.6063422402671</v>
       </c>
       <c r="H15" t="n">
-        <v>95.11672505909036</v>
+        <v>95.11672505909038</v>
       </c>
       <c r="I15" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J15" t="n">
-        <v>206.8886799928779</v>
+        <v>278.7008533704399</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4004983989296</v>
+        <v>484.3920871340388</v>
       </c>
       <c r="L15" t="n">
-        <v>997.3002872240995</v>
+        <v>807.2918759592087</v>
       </c>
       <c r="M15" t="n">
-        <v>1393.46597875623</v>
+        <v>1203.457567491339</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.525642231158</v>
+        <v>1624.517230966267</v>
       </c>
       <c r="O15" t="n">
-        <v>2177.493178429696</v>
+        <v>1987.484767164805</v>
       </c>
       <c r="P15" t="n">
-        <v>2449.473559768993</v>
+        <v>2259.465148504102</v>
       </c>
       <c r="Q15" t="n">
         <v>2581.366045528469</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.4711050364106</v>
+        <v>724.4711050364099</v>
       </c>
       <c r="C16" t="n">
-        <v>610.7888375264781</v>
+        <v>610.7888375264787</v>
       </c>
       <c r="D16" t="n">
-        <v>515.9261135321182</v>
+        <v>515.9261135321186</v>
       </c>
       <c r="E16" t="n">
-        <v>423.2669353677009</v>
+        <v>423.2669353677012</v>
       </c>
       <c r="F16" t="n">
-        <v>331.6309032877663</v>
+        <v>331.6309032877665</v>
       </c>
       <c r="G16" t="n">
-        <v>219.009435155385</v>
+        <v>219.0094351553852</v>
       </c>
       <c r="H16" t="n">
-        <v>126.5120647664521</v>
+        <v>126.5120647664522</v>
       </c>
       <c r="I16" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J16" t="n">
-        <v>166.5720351737345</v>
+        <v>166.5720351737344</v>
       </c>
       <c r="K16" t="n">
-        <v>405.065696774752</v>
+        <v>405.0656967747519</v>
       </c>
       <c r="L16" t="n">
-        <v>750.6373309273154</v>
+        <v>750.6373309273151</v>
       </c>
       <c r="M16" t="n">
         <v>1122.439469762874</v>
@@ -5454,10 +5454,10 @@
         <v>1821.70384434178</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.012229441909</v>
+        <v>2088.012229441908</v>
       </c>
       <c r="Q16" t="n">
-        <v>2205.615960229127</v>
+        <v>2205.615960229126</v>
       </c>
       <c r="R16" t="n">
         <v>2163.281081209851</v>
@@ -5478,10 +5478,10 @@
         <v>1189.13995365427</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.404318174229</v>
+        <v>1016.404318174228</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.8656544486745</v>
+        <v>850.8656544486739</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1990.283112338476</v>
+        <v>1990.283112338477</v>
       </c>
       <c r="C17" t="n">
         <v>1676.574510816041</v>
@@ -5503,61 +5503,61 @@
         <v>1043.028390446998</v>
       </c>
       <c r="F17" t="n">
-        <v>687.2964010753661</v>
+        <v>687.2964010753658</v>
       </c>
       <c r="G17" t="n">
-        <v>327.0932025674974</v>
+        <v>327.093202567497</v>
       </c>
       <c r="H17" t="n">
-        <v>80.82407975111578</v>
+        <v>80.8240797511159</v>
       </c>
       <c r="I17" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J17" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K17" t="n">
-        <v>521.9947329356955</v>
+        <v>689.4003819560485</v>
       </c>
       <c r="L17" t="n">
-        <v>913.5341044446629</v>
+        <v>1080.939753465016</v>
       </c>
       <c r="M17" t="n">
-        <v>1825.884932410618</v>
+        <v>1993.290581430971</v>
       </c>
       <c r="N17" t="n">
-        <v>2305.39309789281</v>
+        <v>2905.772202081027</v>
       </c>
       <c r="O17" t="n">
-        <v>2995.458923415759</v>
+        <v>3379.098900179781</v>
       </c>
       <c r="P17" t="n">
-        <v>3654.599650894491</v>
+        <v>3719.658906568745</v>
       </c>
       <c r="Q17" t="n">
-        <v>3862.173286126465</v>
+        <v>3927.232541800719</v>
       </c>
       <c r="R17" t="n">
-        <v>3962.567319160777</v>
+        <v>3962.567319160778</v>
       </c>
       <c r="S17" t="n">
-        <v>3898.76504042781</v>
+        <v>3898.765040427811</v>
       </c>
       <c r="T17" t="n">
         <v>3746.357342573152</v>
       </c>
       <c r="U17" t="n">
-        <v>3548.050008163296</v>
+        <v>3548.050008163297</v>
       </c>
       <c r="V17" t="n">
-        <v>3272.241036237701</v>
+        <v>3272.241036237702</v>
       </c>
       <c r="W17" t="n">
-        <v>2974.726296385563</v>
+        <v>2974.726296385564</v>
       </c>
       <c r="X17" t="n">
-        <v>2656.514453542459</v>
+        <v>2656.51445354246</v>
       </c>
       <c r="Y17" t="n">
         <v>2321.629036984623</v>
@@ -5588,31 +5588,31 @@
         <v>187.6063422402671</v>
       </c>
       <c r="H18" t="n">
-        <v>95.11672505909036</v>
+        <v>95.11672505909038</v>
       </c>
       <c r="I18" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J18" t="n">
-        <v>153.8707283834351</v>
+        <v>278.7008533704399</v>
       </c>
       <c r="K18" t="n">
-        <v>359.561962147034</v>
+        <v>484.3920871340388</v>
       </c>
       <c r="L18" t="n">
-        <v>682.461750972204</v>
+        <v>807.2918759592087</v>
       </c>
       <c r="M18" t="n">
-        <v>1078.627442504335</v>
+        <v>1203.457567491339</v>
       </c>
       <c r="N18" t="n">
-        <v>1499.687105979262</v>
+        <v>1624.517230966267</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.6546421778</v>
+        <v>1987.484767164805</v>
       </c>
       <c r="P18" t="n">
-        <v>2449.473559768993</v>
+        <v>2259.465148504102</v>
       </c>
       <c r="Q18" t="n">
         <v>2581.366045528469</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.4711050364093</v>
+        <v>724.4711050364099</v>
       </c>
       <c r="C19" t="n">
-        <v>610.7888375264781</v>
+        <v>610.7888375264787</v>
       </c>
       <c r="D19" t="n">
-        <v>515.9261135321182</v>
+        <v>515.9261135321186</v>
       </c>
       <c r="E19" t="n">
-        <v>423.2669353677009</v>
+        <v>423.2669353677012</v>
       </c>
       <c r="F19" t="n">
-        <v>331.6309032877663</v>
+        <v>331.6309032877665</v>
       </c>
       <c r="G19" t="n">
-        <v>219.009435155385</v>
+        <v>219.0094351553852</v>
       </c>
       <c r="H19" t="n">
-        <v>126.5120647664521</v>
+        <v>126.5120647664522</v>
       </c>
       <c r="I19" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J19" t="n">
-        <v>166.5720351737345</v>
+        <v>166.5720351737344</v>
       </c>
       <c r="K19" t="n">
-        <v>405.065696774752</v>
+        <v>405.0656967747519</v>
       </c>
       <c r="L19" t="n">
-        <v>750.6373309273154</v>
+        <v>750.6373309273151</v>
       </c>
       <c r="M19" t="n">
         <v>1122.439469762874</v>
@@ -5691,10 +5691,10 @@
         <v>1821.70384434178</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.012229441909</v>
+        <v>2088.012229441908</v>
       </c>
       <c r="Q19" t="n">
-        <v>2205.615960229127</v>
+        <v>2205.615960229126</v>
       </c>
       <c r="R19" t="n">
         <v>2163.281081209851</v>
@@ -5703,22 +5703,22 @@
         <v>2023.842090133101</v>
       </c>
       <c r="T19" t="n">
-        <v>1856.592144168005</v>
+        <v>1856.592144168006</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.733781061165</v>
+        <v>1622.733781061166</v>
       </c>
       <c r="V19" t="n">
-        <v>1423.303208273254</v>
+        <v>1423.303208273255</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.139953654269</v>
+        <v>1189.13995365427</v>
       </c>
       <c r="X19" t="n">
         <v>1016.404318174228</v>
       </c>
       <c r="Y19" t="n">
-        <v>850.8656544486732</v>
+        <v>850.8656544486739</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1990.283112338477</v>
+        <v>1990.283112338478</v>
       </c>
       <c r="C20" t="n">
-        <v>1676.574510816041</v>
+        <v>1676.574510816042</v>
       </c>
       <c r="D20" t="n">
-        <v>1373.562727627266</v>
+        <v>1373.562727627267</v>
       </c>
       <c r="E20" t="n">
-        <v>1043.028390446997</v>
+        <v>1043.028390446999</v>
       </c>
       <c r="F20" t="n">
-        <v>687.2964010753657</v>
+        <v>687.2964010753667</v>
       </c>
       <c r="G20" t="n">
-        <v>327.093202567497</v>
+        <v>327.0932025674979</v>
       </c>
       <c r="H20" t="n">
-        <v>80.82407975111578</v>
+        <v>80.8240797511159</v>
       </c>
       <c r="I20" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J20" t="n">
-        <v>403.5379619909202</v>
+        <v>298.9289522634467</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.436413696587</v>
+        <v>905.6953306740281</v>
       </c>
       <c r="L20" t="n">
-        <v>1398.975785205554</v>
+        <v>1297.234702182996</v>
       </c>
       <c r="M20" t="n">
-        <v>1866.308215013605</v>
+        <v>1764.567131991047</v>
       </c>
       <c r="N20" t="n">
-        <v>2345.816380495797</v>
+        <v>2244.075297473238</v>
       </c>
       <c r="O20" t="n">
-        <v>2785.267082662454</v>
+        <v>3060.518179090013</v>
       </c>
       <c r="P20" t="n">
-        <v>3444.407810141186</v>
+        <v>3719.658906568745</v>
       </c>
       <c r="Q20" t="n">
-        <v>3862.173286126465</v>
+        <v>3927.232541800719</v>
       </c>
       <c r="R20" t="n">
-        <v>3962.567319160777</v>
+        <v>3962.567319160778</v>
       </c>
       <c r="S20" t="n">
-        <v>3898.76504042781</v>
+        <v>3898.765040427811</v>
       </c>
       <c r="T20" t="n">
-        <v>3746.357342573152</v>
+        <v>3746.357342573153</v>
       </c>
       <c r="U20" t="n">
-        <v>3548.050008163296</v>
+        <v>3548.050008163297</v>
       </c>
       <c r="V20" t="n">
-        <v>3272.241036237701</v>
+        <v>3272.241036237702</v>
       </c>
       <c r="W20" t="n">
-        <v>2974.726296385563</v>
+        <v>2974.726296385564</v>
       </c>
       <c r="X20" t="n">
-        <v>2656.514453542459</v>
+        <v>2656.51445354246</v>
       </c>
       <c r="Y20" t="n">
-        <v>2321.629036984623</v>
+        <v>2321.629036984624</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>187.6063422402671</v>
       </c>
       <c r="H21" t="n">
-        <v>95.11672505909036</v>
+        <v>95.11672505909038</v>
       </c>
       <c r="I21" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J21" t="n">
-        <v>153.8707283834351</v>
+        <v>278.7008533704399</v>
       </c>
       <c r="K21" t="n">
-        <v>621.3825467894868</v>
+        <v>484.3920871340388</v>
       </c>
       <c r="L21" t="n">
-        <v>944.2823356146567</v>
+        <v>807.2918759592087</v>
       </c>
       <c r="M21" t="n">
-        <v>1340.448027146788</v>
+        <v>1203.457567491339</v>
       </c>
       <c r="N21" t="n">
-        <v>1761.507690621715</v>
+        <v>1624.517230966267</v>
       </c>
       <c r="O21" t="n">
-        <v>2124.475226820253</v>
+        <v>1987.484767164805</v>
       </c>
       <c r="P21" t="n">
-        <v>2396.45560815955</v>
+        <v>2259.465148504102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2581.366045528469</v>
+        <v>2548.965257550648</v>
       </c>
       <c r="R21" t="n">
         <v>2581.366045528469</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.4711050364106</v>
+        <v>724.4711050364099</v>
       </c>
       <c r="C22" t="n">
-        <v>610.7888375264794</v>
+        <v>610.7888375264787</v>
       </c>
       <c r="D22" t="n">
-        <v>515.9261135321194</v>
+        <v>515.9261135321186</v>
       </c>
       <c r="E22" t="n">
-        <v>423.266935367702</v>
+        <v>423.2669353677012</v>
       </c>
       <c r="F22" t="n">
-        <v>331.6309032877674</v>
+        <v>331.6309032877665</v>
       </c>
       <c r="G22" t="n">
-        <v>219.0094351553861</v>
+        <v>219.0094351553852</v>
       </c>
       <c r="H22" t="n">
-        <v>126.5120647664521</v>
+        <v>126.5120647664522</v>
       </c>
       <c r="I22" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J22" t="n">
-        <v>166.5720351737345</v>
+        <v>166.5720351737344</v>
       </c>
       <c r="K22" t="n">
-        <v>405.065696774752</v>
+        <v>405.0656967747519</v>
       </c>
       <c r="L22" t="n">
-        <v>750.6373309273154</v>
+        <v>750.6373309273151</v>
       </c>
       <c r="M22" t="n">
         <v>1122.439469762874</v>
@@ -5928,22 +5928,22 @@
         <v>1821.70384434178</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.012229441909</v>
+        <v>2088.012229441908</v>
       </c>
       <c r="Q22" t="n">
-        <v>2205.615960229127</v>
+        <v>2205.615960229126</v>
       </c>
       <c r="R22" t="n">
-        <v>2163.281081209851</v>
+        <v>2163.28108120985</v>
       </c>
       <c r="S22" t="n">
-        <v>2023.842090133101</v>
+        <v>2023.8420901331</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.592144168006</v>
+        <v>1856.592144168005</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.733781061166</v>
+        <v>1622.733781061165</v>
       </c>
       <c r="V22" t="n">
         <v>1423.303208273255</v>
@@ -5952,10 +5952,10 @@
         <v>1189.13995365427</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.404318174229</v>
+        <v>1016.404318174228</v>
       </c>
       <c r="Y22" t="n">
-        <v>850.8656544486745</v>
+        <v>850.8656544486739</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1990.283112338477</v>
+        <v>1990.283112338478</v>
       </c>
       <c r="C23" t="n">
-        <v>1676.574510816041</v>
+        <v>1676.574510816042</v>
       </c>
       <c r="D23" t="n">
         <v>1373.562727627267</v>
@@ -5977,64 +5977,64 @@
         <v>1043.028390446998</v>
       </c>
       <c r="F23" t="n">
-        <v>687.2964010753666</v>
+        <v>687.2964010753665</v>
       </c>
       <c r="G23" t="n">
-        <v>327.0932025674979</v>
+        <v>327.0932025674977</v>
       </c>
       <c r="H23" t="n">
-        <v>80.82407975111578</v>
+        <v>80.82407975111593</v>
       </c>
       <c r="I23" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J23" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K23" t="n">
-        <v>842.8986913811486</v>
+        <v>689.4003819560485</v>
       </c>
       <c r="L23" t="n">
-        <v>1647.922665295062</v>
+        <v>1494.424355869962</v>
       </c>
       <c r="M23" t="n">
-        <v>2115.255095103113</v>
+        <v>2406.775183835917</v>
       </c>
       <c r="N23" t="n">
-        <v>2729.456357259817</v>
+        <v>2886.283349318109</v>
       </c>
       <c r="O23" t="n">
-        <v>3168.907059426474</v>
+        <v>3325.734051484766</v>
       </c>
       <c r="P23" t="n">
-        <v>3509.467065815438</v>
+        <v>3666.29405787373</v>
       </c>
       <c r="Q23" t="n">
-        <v>3927.232541800718</v>
+        <v>3873.867693105704</v>
       </c>
       <c r="R23" t="n">
-        <v>3962.567319160777</v>
+        <v>3962.567319160778</v>
       </c>
       <c r="S23" t="n">
-        <v>3898.76504042781</v>
+        <v>3898.765040427811</v>
       </c>
       <c r="T23" t="n">
-        <v>3746.357342573152</v>
+        <v>3746.357342573153</v>
       </c>
       <c r="U23" t="n">
-        <v>3548.050008163296</v>
+        <v>3548.050008163298</v>
       </c>
       <c r="V23" t="n">
-        <v>3272.241036237701</v>
+        <v>3272.241036237703</v>
       </c>
       <c r="W23" t="n">
-        <v>2974.726296385563</v>
+        <v>2974.726296385564</v>
       </c>
       <c r="X23" t="n">
-        <v>2656.514453542459</v>
+        <v>2656.51445354246</v>
       </c>
       <c r="Y23" t="n">
-        <v>2321.629036984623</v>
+        <v>2321.629036984624</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>187.6063422402671</v>
       </c>
       <c r="H24" t="n">
-        <v>95.11672505909036</v>
+        <v>95.11672505909038</v>
       </c>
       <c r="I24" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J24" t="n">
-        <v>206.8886799928779</v>
+        <v>278.7008533704399</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4004983989296</v>
+        <v>484.3920871340388</v>
       </c>
       <c r="L24" t="n">
-        <v>997.3002872240995</v>
+        <v>807.2918759592087</v>
       </c>
       <c r="M24" t="n">
-        <v>1393.46597875623</v>
+        <v>1203.457567491339</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.525642231158</v>
+        <v>1624.517230966267</v>
       </c>
       <c r="O24" t="n">
-        <v>2177.493178429696</v>
+        <v>1987.484767164805</v>
       </c>
       <c r="P24" t="n">
-        <v>2449.473559768993</v>
+        <v>2259.465148504102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2581.366045528469</v>
+        <v>2548.965257550648</v>
       </c>
       <c r="R24" t="n">
         <v>2581.366045528469</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.4711050364093</v>
+        <v>724.4711050364099</v>
       </c>
       <c r="C25" t="n">
-        <v>610.7888375264781</v>
+        <v>610.7888375264787</v>
       </c>
       <c r="D25" t="n">
-        <v>515.9261135321182</v>
+        <v>515.9261135321186</v>
       </c>
       <c r="E25" t="n">
-        <v>423.2669353677009</v>
+        <v>423.2669353677012</v>
       </c>
       <c r="F25" t="n">
-        <v>331.6309032877662</v>
+        <v>331.6309032877665</v>
       </c>
       <c r="G25" t="n">
-        <v>219.0094351553849</v>
+        <v>219.0094351553852</v>
       </c>
       <c r="H25" t="n">
-        <v>126.5120647664521</v>
+        <v>126.5120647664522</v>
       </c>
       <c r="I25" t="n">
-        <v>79.25134638321553</v>
+        <v>79.25134638321556</v>
       </c>
       <c r="J25" t="n">
-        <v>166.5720351737343</v>
+        <v>166.5720351737344</v>
       </c>
       <c r="K25" t="n">
         <v>405.0656967747519</v>
@@ -6177,22 +6177,22 @@
         <v>2023.842090133101</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.592144168005</v>
+        <v>1856.592144168006</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.733781061165</v>
+        <v>1622.733781061166</v>
       </c>
       <c r="V25" t="n">
-        <v>1423.303208273254</v>
+        <v>1423.303208273255</v>
       </c>
       <c r="W25" t="n">
-        <v>1189.139953654269</v>
+        <v>1189.13995365427</v>
       </c>
       <c r="X25" t="n">
         <v>1016.404318174228</v>
       </c>
       <c r="Y25" t="n">
-        <v>850.8656544486732</v>
+        <v>850.8656544486739</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2393.974984167768</v>
+        <v>2393.974984167769</v>
       </c>
       <c r="C26" t="n">
-        <v>2025.012467227356</v>
+        <v>2025.012467227358</v>
       </c>
       <c r="D26" t="n">
-        <v>1666.746768620606</v>
+        <v>1666.746768620608</v>
       </c>
       <c r="E26" t="n">
-        <v>1280.958516022362</v>
+        <v>1280.958516022364</v>
       </c>
       <c r="F26" t="n">
-        <v>869.9726112327548</v>
+        <v>869.9726112327562</v>
       </c>
       <c r="G26" t="n">
-        <v>454.5154973069111</v>
+        <v>454.515497306911</v>
       </c>
       <c r="H26" t="n">
         <v>152.9924590725535</v>
       </c>
       <c r="I26" t="n">
-        <v>96.1658102866775</v>
+        <v>96.16581028667751</v>
       </c>
       <c r="J26" t="n">
-        <v>253.0467768740291</v>
+        <v>420.4524258943822</v>
       </c>
       <c r="K26" t="n">
-        <v>538.9091968391574</v>
+        <v>713.4635355319268</v>
       </c>
       <c r="L26" t="n">
-        <v>1343.933170753071</v>
+        <v>1518.48750944584</v>
       </c>
       <c r="M26" t="n">
-        <v>2256.283998719026</v>
+        <v>2430.838337411796</v>
       </c>
       <c r="N26" t="n">
-        <v>3168.765619369082</v>
+        <v>3343.319958061851</v>
       </c>
       <c r="O26" t="n">
-        <v>3906.24137426311</v>
+        <v>4159.762839678626</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.382101741842</v>
+        <v>4500.322846067591</v>
       </c>
       <c r="Q26" t="n">
-        <v>4772.955736973816</v>
+        <v>4707.896481299565</v>
       </c>
       <c r="R26" t="n">
-        <v>4808.290514333875</v>
+        <v>4808.290514333876</v>
       </c>
       <c r="S26" t="n">
-        <v>4689.234320182933</v>
+        <v>4689.234320182934</v>
       </c>
       <c r="T26" t="n">
-        <v>4481.572706910298</v>
+        <v>4481.5727069103</v>
       </c>
       <c r="U26" t="n">
-        <v>4228.011457082466</v>
+        <v>4228.011457082468</v>
       </c>
       <c r="V26" t="n">
-        <v>3896.948569738895</v>
+        <v>3896.948569738897</v>
       </c>
       <c r="W26" t="n">
-        <v>3544.179914468781</v>
+        <v>3544.179914468783</v>
       </c>
       <c r="X26" t="n">
-        <v>3170.714156207701</v>
+        <v>3170.714156207703</v>
       </c>
       <c r="Y26" t="n">
-        <v>2780.57482423189</v>
+        <v>2780.574824231891</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>112.0311889625523</v>
       </c>
       <c r="I27" t="n">
-        <v>96.1658102866775</v>
+        <v>96.16581028667751</v>
       </c>
       <c r="J27" t="n">
-        <v>170.7851922868971</v>
+        <v>277.6472136803021</v>
       </c>
       <c r="K27" t="n">
-        <v>376.476426050496</v>
+        <v>483.338447443901</v>
       </c>
       <c r="L27" t="n">
-        <v>699.3762148756659</v>
+        <v>806.238236269071</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.541906407797</v>
+        <v>1202.403927801202</v>
       </c>
       <c r="N27" t="n">
-        <v>1831.44010613462</v>
+        <v>1623.463591276129</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.407642333158</v>
+        <v>1986.431127474667</v>
       </c>
       <c r="P27" t="n">
-        <v>2466.388023672455</v>
+        <v>2258.411508813964</v>
       </c>
       <c r="Q27" t="n">
         <v>2598.280509431931</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>514.3071134451556</v>
+        <v>615.0681625208347</v>
       </c>
       <c r="C28" t="n">
-        <v>514.3071134451556</v>
+        <v>516.6724670505826</v>
       </c>
       <c r="D28" t="n">
-        <v>514.3071134451556</v>
+        <v>366.5558276382469</v>
       </c>
       <c r="E28" t="n">
-        <v>514.3071134451556</v>
+        <v>366.5558276382469</v>
       </c>
       <c r="F28" t="n">
-        <v>514.3071134451556</v>
+        <v>366.5558276382469</v>
       </c>
       <c r="G28" t="n">
-        <v>346.4317298947985</v>
+        <v>198.6804440878898</v>
       </c>
       <c r="H28" t="n">
         <v>198.6804440878898</v>
       </c>
       <c r="I28" t="n">
-        <v>96.1658102866775</v>
+        <v>96.16581028667751</v>
       </c>
       <c r="J28" t="n">
         <v>129.3321365760384</v>
       </c>
       <c r="K28" t="n">
-        <v>313.6714356758979</v>
+        <v>313.671435675898</v>
       </c>
       <c r="L28" t="n">
         <v>605.0887073273032</v>
@@ -6408,28 +6408,28 @@
         <v>1789.295524123324</v>
       </c>
       <c r="R28" t="n">
-        <v>1691.706729686072</v>
+        <v>1789.295524123324</v>
       </c>
       <c r="S28" t="n">
-        <v>1691.706729686072</v>
+        <v>1789.295524123324</v>
       </c>
       <c r="T28" t="n">
-        <v>1469.202868303001</v>
+        <v>1789.295524123324</v>
       </c>
       <c r="U28" t="n">
-        <v>1180.090589778185</v>
+        <v>1500.183245598509</v>
       </c>
       <c r="V28" t="n">
-        <v>1180.090589778185</v>
+        <v>1245.498757392622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.737708316943</v>
+        <v>1245.498757392622</v>
       </c>
       <c r="X28" t="n">
-        <v>916.7481574189254</v>
+        <v>1017.509206494605</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.9555782753953</v>
+        <v>796.7166273510744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2393.974984167768</v>
+        <v>2393.974984167769</v>
       </c>
       <c r="C29" t="n">
-        <v>2025.012467227356</v>
+        <v>2025.012467227358</v>
       </c>
       <c r="D29" t="n">
-        <v>1666.746768620606</v>
+        <v>1666.746768620607</v>
       </c>
       <c r="E29" t="n">
-        <v>1280.958516022362</v>
+        <v>1280.958516022363</v>
       </c>
       <c r="F29" t="n">
-        <v>869.9726112327548</v>
+        <v>869.9726112327553</v>
       </c>
       <c r="G29" t="n">
-        <v>454.5154973069102</v>
+        <v>454.5154973069109</v>
       </c>
       <c r="H29" t="n">
-        <v>152.9924590725534</v>
+        <v>152.9924590725535</v>
       </c>
       <c r="I29" t="n">
         <v>96.1658102866775</v>
       </c>
       <c r="J29" t="n">
-        <v>253.0467768740291</v>
+        <v>420.4524258943821</v>
       </c>
       <c r="K29" t="n">
-        <v>778.522791206179</v>
+        <v>1027.218804304964</v>
       </c>
       <c r="L29" t="n">
-        <v>1583.546765120092</v>
+        <v>1434.73334576067</v>
       </c>
       <c r="M29" t="n">
-        <v>2495.897593086048</v>
+        <v>1902.065775568721</v>
       </c>
       <c r="N29" t="n">
-        <v>3408.379213736103</v>
+        <v>2814.547396218777</v>
       </c>
       <c r="O29" t="n">
-        <v>4224.822095352878</v>
+        <v>3630.990277835552</v>
       </c>
       <c r="P29" t="n">
-        <v>4565.382101741842</v>
+        <v>4290.131005314284</v>
       </c>
       <c r="Q29" t="n">
-        <v>4772.955736973816</v>
+        <v>4707.896481299564</v>
       </c>
       <c r="R29" t="n">
         <v>4808.290514333875</v>
       </c>
       <c r="S29" t="n">
-        <v>4689.234320182932</v>
+        <v>4689.234320182933</v>
       </c>
       <c r="T29" t="n">
-        <v>4481.572706910298</v>
+        <v>4481.572706910299</v>
       </c>
       <c r="U29" t="n">
-        <v>4228.011457082466</v>
+        <v>4228.011457082468</v>
       </c>
       <c r="V29" t="n">
-        <v>3896.948569738895</v>
+        <v>3896.948569738897</v>
       </c>
       <c r="W29" t="n">
-        <v>3544.179914468781</v>
+        <v>3544.179914468783</v>
       </c>
       <c r="X29" t="n">
-        <v>3170.714156207701</v>
+        <v>3170.714156207703</v>
       </c>
       <c r="Y29" t="n">
-        <v>2780.57482423189</v>
+        <v>2780.574824231891</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>96.1658102866775</v>
       </c>
       <c r="J30" t="n">
-        <v>170.7851922868971</v>
+        <v>295.6153172739018</v>
       </c>
       <c r="K30" t="n">
-        <v>376.476426050496</v>
+        <v>501.3065510375008</v>
       </c>
       <c r="L30" t="n">
-        <v>699.3762148756659</v>
+        <v>824.2063398626707</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.541906407797</v>
+        <v>1220.372031394802</v>
       </c>
       <c r="N30" t="n">
-        <v>1831.44010613462</v>
+        <v>1641.431694869729</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.407642333158</v>
+        <v>2004.399231068267</v>
       </c>
       <c r="P30" t="n">
-        <v>2466.388023672455</v>
+        <v>2276.379612407564</v>
       </c>
       <c r="Q30" t="n">
-        <v>2598.280509431931</v>
+        <v>2565.87972145411</v>
       </c>
       <c r="R30" t="n">
         <v>2598.280509431931</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3451.972366975493</v>
+        <v>265.1019932145844</v>
       </c>
       <c r="C31" t="n">
-        <v>3283.036184047586</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="D31" t="n">
-        <v>3283.036184047586</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="E31" t="n">
-        <v>3283.036184047586</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="F31" t="n">
-        <v>3283.036184047586</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="G31" t="n">
-        <v>3115.160800497229</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="H31" t="n">
-        <v>3115.160800497229</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="I31" t="n">
-        <v>3115.160800497229</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="J31" t="n">
-        <v>3148.327126786589</v>
+        <v>129.3321365760384</v>
       </c>
       <c r="K31" t="n">
-        <v>3332.666425886449</v>
+        <v>313.6714356758979</v>
       </c>
       <c r="L31" t="n">
-        <v>3624.083697537854</v>
+        <v>605.0887073273032</v>
       </c>
       <c r="M31" t="n">
-        <v>3941.731473872255</v>
+        <v>922.7364836617037</v>
       </c>
       <c r="N31" t="n">
-        <v>4257.260912484966</v>
+        <v>1238.265922274415</v>
       </c>
       <c r="O31" t="n">
-        <v>4532.687123448844</v>
+        <v>1513.692133238294</v>
       </c>
       <c r="P31" t="n">
-        <v>4744.841146047816</v>
+        <v>1725.846155837264</v>
       </c>
       <c r="Q31" t="n">
-        <v>4808.290514333875</v>
+        <v>1789.295524123324</v>
       </c>
       <c r="R31" t="n">
-        <v>4808.290514333875</v>
+        <v>1789.295524123324</v>
       </c>
       <c r="S31" t="n">
-        <v>4808.290514333875</v>
+        <v>1594.602617628599</v>
       </c>
       <c r="T31" t="n">
-        <v>4808.290514333875</v>
+        <v>1372.098756245528</v>
       </c>
       <c r="U31" t="n">
-        <v>4519.17823580906</v>
+        <v>1082.986477720712</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.82013188424</v>
+        <v>964.157178979802</v>
       </c>
       <c r="W31" t="n">
-        <v>4082.40296184728</v>
+        <v>674.7400089428414</v>
       </c>
       <c r="X31" t="n">
-        <v>3854.413410949262</v>
+        <v>446.7504580448241</v>
       </c>
       <c r="Y31" t="n">
-        <v>3633.620831805732</v>
+        <v>446.7504580448241</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2393.974984167769</v>
       </c>
       <c r="C32" t="n">
-        <v>2025.012467227358</v>
+        <v>2025.012467227357</v>
       </c>
       <c r="D32" t="n">
         <v>1666.746768620607</v>
       </c>
       <c r="E32" t="n">
-        <v>1280.958516022363</v>
+        <v>1280.958516022362</v>
       </c>
       <c r="F32" t="n">
-        <v>869.9726112327558</v>
+        <v>869.9726112327548</v>
       </c>
       <c r="G32" t="n">
         <v>454.5154973069109</v>
@@ -6703,22 +6703,22 @@
         <v>253.0467768740291</v>
       </c>
       <c r="K32" t="n">
-        <v>859.8131552846105</v>
+        <v>778.522791206179</v>
       </c>
       <c r="L32" t="n">
-        <v>1251.352526793578</v>
+        <v>1583.546765120092</v>
       </c>
       <c r="M32" t="n">
-        <v>2163.703354759533</v>
+        <v>2495.897593086048</v>
       </c>
       <c r="N32" t="n">
-        <v>3076.184975409589</v>
+        <v>3408.379213736103</v>
       </c>
       <c r="O32" t="n">
-        <v>3892.627857026364</v>
+        <v>4224.822095352878</v>
       </c>
       <c r="P32" t="n">
-        <v>4355.190260988536</v>
+        <v>4565.382101741842</v>
       </c>
       <c r="Q32" t="n">
         <v>4772.955736973816</v>
@@ -6733,19 +6733,19 @@
         <v>4481.572706910299</v>
       </c>
       <c r="U32" t="n">
-        <v>4228.011457082468</v>
+        <v>4228.011457082467</v>
       </c>
       <c r="V32" t="n">
-        <v>3896.948569738897</v>
+        <v>3896.948569738896</v>
       </c>
       <c r="W32" t="n">
-        <v>3544.179914468783</v>
+        <v>3544.179914468782</v>
       </c>
       <c r="X32" t="n">
-        <v>3170.714156207703</v>
+        <v>3170.714156207702</v>
       </c>
       <c r="Y32" t="n">
-        <v>2780.574824231891</v>
+        <v>2780.57482423189</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354.9670884116731</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="C34" t="n">
-        <v>186.0309054837662</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="D34" t="n">
-        <v>186.0309054837662</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="E34" t="n">
-        <v>186.0309054837662</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="F34" t="n">
-        <v>186.0309054837662</v>
+        <v>96.1658102866775</v>
       </c>
       <c r="G34" t="n">
         <v>96.1658102866775</v>
@@ -6882,28 +6882,28 @@
         <v>1789.295524123324</v>
       </c>
       <c r="R34" t="n">
-        <v>1691.706729686072</v>
+        <v>1789.295524123324</v>
       </c>
       <c r="S34" t="n">
-        <v>1497.013823191347</v>
+        <v>1594.602617628599</v>
       </c>
       <c r="T34" t="n">
-        <v>1274.509961808275</v>
+        <v>1372.098756245528</v>
       </c>
       <c r="U34" t="n">
-        <v>985.3976832834603</v>
+        <v>1270.698063401312</v>
       </c>
       <c r="V34" t="n">
-        <v>985.3976832834603</v>
+        <v>1016.013575195425</v>
       </c>
       <c r="W34" t="n">
-        <v>985.3976832834603</v>
+        <v>726.5964051584647</v>
       </c>
       <c r="X34" t="n">
-        <v>757.408132385443</v>
+        <v>498.6068542604473</v>
       </c>
       <c r="Y34" t="n">
-        <v>536.6155532419128</v>
+        <v>277.8142751169172</v>
       </c>
     </row>
     <row r="35">
@@ -6919,52 +6919,52 @@
         <v>1676.574510816041</v>
       </c>
       <c r="D35" t="n">
-        <v>1373.562727627267</v>
+        <v>1373.562727627266</v>
       </c>
       <c r="E35" t="n">
         <v>1043.028390446998</v>
       </c>
       <c r="F35" t="n">
-        <v>687.2964010753664</v>
+        <v>687.2964010753662</v>
       </c>
       <c r="G35" t="n">
-        <v>327.0932025674977</v>
+        <v>327.0932025674975</v>
       </c>
       <c r="H35" t="n">
-        <v>80.82407975111583</v>
+        <v>80.82407975111579</v>
       </c>
       <c r="I35" t="n">
         <v>79.25134638321555</v>
       </c>
       <c r="J35" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K35" t="n">
-        <v>521.9947329356955</v>
+        <v>689.4003819560485</v>
       </c>
       <c r="L35" t="n">
-        <v>1327.018706849609</v>
+        <v>1494.424355869962</v>
       </c>
       <c r="M35" t="n">
-        <v>2239.369534815564</v>
+        <v>2018.088597406561</v>
       </c>
       <c r="N35" t="n">
-        <v>2939.648198013123</v>
+        <v>2497.596762888752</v>
       </c>
       <c r="O35" t="n">
-        <v>3379.09890017978</v>
+        <v>3314.039644505527</v>
       </c>
       <c r="P35" t="n">
-        <v>3719.658906568745</v>
+        <v>3654.599650894492</v>
       </c>
       <c r="Q35" t="n">
-        <v>3927.232541800719</v>
+        <v>3862.173286126466</v>
       </c>
       <c r="R35" t="n">
-        <v>3962.567319160778</v>
+        <v>3962.567319160777</v>
       </c>
       <c r="S35" t="n">
-        <v>3898.765040427811</v>
+        <v>3898.76504042781</v>
       </c>
       <c r="T35" t="n">
         <v>3746.357342573152</v>
@@ -7019,22 +7019,22 @@
         <v>153.8707283834352</v>
       </c>
       <c r="K36" t="n">
-        <v>359.5619621470341</v>
+        <v>621.3825467894869</v>
       </c>
       <c r="L36" t="n">
-        <v>682.4617509722041</v>
+        <v>944.2823356146569</v>
       </c>
       <c r="M36" t="n">
-        <v>1078.627442504335</v>
+        <v>1340.448027146788</v>
       </c>
       <c r="N36" t="n">
-        <v>1499.687105979262</v>
+        <v>1761.507690621715</v>
       </c>
       <c r="O36" t="n">
-        <v>2177.493178429696</v>
+        <v>2124.475226820253</v>
       </c>
       <c r="P36" t="n">
-        <v>2449.473559768993</v>
+        <v>2396.45560815955</v>
       </c>
       <c r="Q36" t="n">
         <v>2581.366045528469</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2481.422463968061</v>
+        <v>724.4711050364106</v>
       </c>
       <c r="C37" t="n">
-        <v>2367.74019645813</v>
+        <v>610.7888375264781</v>
       </c>
       <c r="D37" t="n">
-        <v>2272.87747246377</v>
+        <v>515.9261135321182</v>
       </c>
       <c r="E37" t="n">
-        <v>2180.218294299352</v>
+        <v>423.2669353677009</v>
       </c>
       <c r="F37" t="n">
-        <v>2088.582262219417</v>
+        <v>331.6309032877663</v>
       </c>
       <c r="G37" t="n">
-        <v>1975.960794087036</v>
+        <v>219.009435155385</v>
       </c>
       <c r="H37" t="n">
-        <v>1883.463423698103</v>
+        <v>126.5120647664521</v>
       </c>
       <c r="I37" t="n">
-        <v>1836.202705314867</v>
+        <v>79.25134638321555</v>
       </c>
       <c r="J37" t="n">
-        <v>1923.523394105385</v>
+        <v>166.5720351737345</v>
       </c>
       <c r="K37" t="n">
-        <v>2162.017055706403</v>
+        <v>405.065696774752</v>
       </c>
       <c r="L37" t="n">
-        <v>2507.588689858966</v>
+        <v>750.6373309273154</v>
       </c>
       <c r="M37" t="n">
-        <v>2879.390828694525</v>
+        <v>1122.439469762874</v>
       </c>
       <c r="N37" t="n">
-        <v>3249.074629808394</v>
+        <v>1492.123270876743</v>
       </c>
       <c r="O37" t="n">
-        <v>3578.655203273431</v>
+        <v>1821.70384434178</v>
       </c>
       <c r="P37" t="n">
-        <v>3844.96358837356</v>
+        <v>2088.012229441909</v>
       </c>
       <c r="Q37" t="n">
-        <v>3962.567319160778</v>
+        <v>2205.615960229127</v>
       </c>
       <c r="R37" t="n">
-        <v>3920.232440141501</v>
+        <v>2163.281081209851</v>
       </c>
       <c r="S37" t="n">
-        <v>3780.793449064752</v>
+        <v>2023.842090133101</v>
       </c>
       <c r="T37" t="n">
-        <v>3613.543503099656</v>
+        <v>1856.592144168006</v>
       </c>
       <c r="U37" t="n">
-        <v>3379.685139992816</v>
+        <v>1622.733781061166</v>
       </c>
       <c r="V37" t="n">
-        <v>3180.254567204905</v>
+        <v>1423.303208273255</v>
       </c>
       <c r="W37" t="n">
-        <v>2946.091312585921</v>
+        <v>1189.13995365427</v>
       </c>
       <c r="X37" t="n">
-        <v>2773.355677105879</v>
+        <v>1016.404318174229</v>
       </c>
       <c r="Y37" t="n">
-        <v>2607.817013380325</v>
+        <v>850.8656544486745</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>327.0932025674975</v>
       </c>
       <c r="H38" t="n">
-        <v>80.82407975111583</v>
+        <v>80.82407975111579</v>
       </c>
       <c r="I38" t="n">
         <v>79.25134638321555</v>
       </c>
       <c r="J38" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K38" t="n">
-        <v>521.9947329356955</v>
+        <v>689.4003819560485</v>
       </c>
       <c r="L38" t="n">
-        <v>913.5341044446629</v>
+        <v>1494.424355869962</v>
       </c>
       <c r="M38" t="n">
-        <v>1825.884932410618</v>
+        <v>1961.756785678013</v>
       </c>
       <c r="N38" t="n">
-        <v>2556.008221249103</v>
+        <v>2497.596762888752</v>
       </c>
       <c r="O38" t="n">
-        <v>2995.45892341576</v>
+        <v>3314.039644505527</v>
       </c>
       <c r="P38" t="n">
         <v>3654.599650894492</v>
@@ -7198,10 +7198,10 @@
         <v>3862.173286126466</v>
       </c>
       <c r="R38" t="n">
-        <v>3962.567319160778</v>
+        <v>3962.567319160777</v>
       </c>
       <c r="S38" t="n">
-        <v>3898.765040427811</v>
+        <v>3898.76504042781</v>
       </c>
       <c r="T38" t="n">
         <v>3746.357342573152</v>
@@ -7253,28 +7253,28 @@
         <v>79.25134638321555</v>
       </c>
       <c r="J39" t="n">
-        <v>153.8707283834352</v>
+        <v>278.7008533704399</v>
       </c>
       <c r="K39" t="n">
-        <v>359.5619621470341</v>
+        <v>641.9997104211086</v>
       </c>
       <c r="L39" t="n">
-        <v>682.4617509722041</v>
+        <v>964.8994992462785</v>
       </c>
       <c r="M39" t="n">
-        <v>1393.46597875623</v>
+        <v>1361.065190778409</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.525642231158</v>
+        <v>1782.124854253337</v>
       </c>
       <c r="O39" t="n">
-        <v>2177.493178429696</v>
+        <v>2145.092390451875</v>
       </c>
       <c r="P39" t="n">
-        <v>2449.473559768993</v>
+        <v>2417.072771791172</v>
       </c>
       <c r="Q39" t="n">
-        <v>2581.366045528469</v>
+        <v>2548.965257550648</v>
       </c>
       <c r="R39" t="n">
         <v>2581.366045528469</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.4711050364092</v>
+        <v>724.4711050364094</v>
       </c>
       <c r="C40" t="n">
-        <v>610.788837526478</v>
+        <v>610.7888375264782</v>
       </c>
       <c r="D40" t="n">
-        <v>515.9261135321181</v>
+        <v>515.9261135321183</v>
       </c>
       <c r="E40" t="n">
         <v>423.2669353677009</v>
       </c>
       <c r="F40" t="n">
-        <v>331.6309032877664</v>
+        <v>331.6309032877663</v>
       </c>
       <c r="G40" t="n">
-        <v>219.0094351553851</v>
+        <v>219.009435155385</v>
       </c>
       <c r="H40" t="n">
         <v>126.5120647664521</v>
@@ -7338,16 +7338,16 @@
         <v>405.065696774752</v>
       </c>
       <c r="L40" t="n">
-        <v>750.6373309273149</v>
+        <v>750.6373309273154</v>
       </c>
       <c r="M40" t="n">
-        <v>1122.439469762873</v>
+        <v>1122.439469762874</v>
       </c>
       <c r="N40" t="n">
-        <v>1492.123270876742</v>
+        <v>1492.123270876743</v>
       </c>
       <c r="O40" t="n">
-        <v>1821.703844341779</v>
+        <v>1821.70384434178</v>
       </c>
       <c r="P40" t="n">
         <v>2088.012229441908</v>
@@ -7377,7 +7377,7 @@
         <v>1016.404318174228</v>
       </c>
       <c r="Y40" t="n">
-        <v>850.8656544486732</v>
+        <v>850.8656544486734</v>
       </c>
     </row>
     <row r="41">
@@ -7387,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1990.283112338478</v>
+        <v>1990.283112338477</v>
       </c>
       <c r="C41" t="n">
-        <v>1676.574510816042</v>
+        <v>1676.574510816041</v>
       </c>
       <c r="D41" t="n">
         <v>1373.562727627267</v>
       </c>
       <c r="E41" t="n">
-        <v>1043.028390446998</v>
+        <v>1043.028390446999</v>
       </c>
       <c r="F41" t="n">
-        <v>687.2964010753665</v>
+        <v>687.296401075367</v>
       </c>
       <c r="G41" t="n">
-        <v>327.0932025674977</v>
+        <v>327.0932025674983</v>
       </c>
       <c r="H41" t="n">
-        <v>80.82407975111586</v>
+        <v>80.82407975111579</v>
       </c>
       <c r="I41" t="n">
         <v>79.25134638321555</v>
       </c>
       <c r="J41" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K41" t="n">
-        <v>810.7914493588495</v>
+        <v>1007.436413696587</v>
       </c>
       <c r="L41" t="n">
-        <v>1615.815423272763</v>
+        <v>1398.975785205554</v>
       </c>
       <c r="M41" t="n">
-        <v>2083.147853080814</v>
+        <v>1866.308215013605</v>
       </c>
       <c r="N41" t="n">
-        <v>2562.656018563006</v>
+        <v>2345.816380495797</v>
       </c>
       <c r="O41" t="n">
-        <v>3379.09890017978</v>
+        <v>2785.267082662454</v>
       </c>
       <c r="P41" t="n">
-        <v>3719.658906568745</v>
+        <v>3444.407810141186</v>
       </c>
       <c r="Q41" t="n">
-        <v>3927.232541800719</v>
+        <v>3862.173286126466</v>
       </c>
       <c r="R41" t="n">
-        <v>3962.567319160778</v>
+        <v>3962.567319160777</v>
       </c>
       <c r="S41" t="n">
         <v>3898.765040427811</v>
@@ -7444,19 +7444,19 @@
         <v>3746.357342573152</v>
       </c>
       <c r="U41" t="n">
-        <v>3548.050008163298</v>
+        <v>3548.050008163297</v>
       </c>
       <c r="V41" t="n">
-        <v>3272.241036237703</v>
+        <v>3272.241036237701</v>
       </c>
       <c r="W41" t="n">
-        <v>2974.726296385564</v>
+        <v>2974.726296385563</v>
       </c>
       <c r="X41" t="n">
-        <v>2656.51445354246</v>
+        <v>2656.514453542459</v>
       </c>
       <c r="Y41" t="n">
-        <v>2321.629036984624</v>
+        <v>2321.629036984623</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>79.25134638321555</v>
       </c>
       <c r="J42" t="n">
-        <v>153.8707283834352</v>
+        <v>260.73274977684</v>
       </c>
       <c r="K42" t="n">
-        <v>359.5619621470341</v>
+        <v>466.4239835404389</v>
       </c>
       <c r="L42" t="n">
-        <v>682.4617509722041</v>
+        <v>789.3237723656089</v>
       </c>
       <c r="M42" t="n">
-        <v>1078.627442504335</v>
+        <v>1185.48946389774</v>
       </c>
       <c r="N42" t="n">
-        <v>1499.687105979262</v>
+        <v>1606.549127372667</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.6546421778</v>
+        <v>1969.516663571205</v>
       </c>
       <c r="P42" t="n">
-        <v>2449.473559768993</v>
+        <v>2241.497044910502</v>
       </c>
       <c r="Q42" t="n">
         <v>2581.366045528469</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.4711050364098</v>
+        <v>724.4711050364094</v>
       </c>
       <c r="C43" t="n">
-        <v>610.7888375264786</v>
+        <v>610.7888375264783</v>
       </c>
       <c r="D43" t="n">
-        <v>515.9261135321185</v>
+        <v>515.9261135321183</v>
       </c>
       <c r="E43" t="n">
-        <v>423.2669353677011</v>
+        <v>423.266935367701</v>
       </c>
       <c r="F43" t="n">
-        <v>331.6309032877664</v>
+        <v>331.6309032877663</v>
       </c>
       <c r="G43" t="n">
-        <v>219.0094351553851</v>
+        <v>219.009435155385</v>
       </c>
       <c r="H43" t="n">
-        <v>126.5120647664522</v>
+        <v>126.5120647664521</v>
       </c>
       <c r="I43" t="n">
         <v>79.25134638321555</v>
       </c>
       <c r="J43" t="n">
-        <v>166.572035173734</v>
+        <v>166.5720351737345</v>
       </c>
       <c r="K43" t="n">
-        <v>405.0656967747515</v>
+        <v>405.065696774752</v>
       </c>
       <c r="L43" t="n">
-        <v>750.6373309273148</v>
+        <v>750.6373309273154</v>
       </c>
       <c r="M43" t="n">
-        <v>1122.439469762873</v>
+        <v>1122.439469762874</v>
       </c>
       <c r="N43" t="n">
-        <v>1492.123270876742</v>
+        <v>1492.123270876743</v>
       </c>
       <c r="O43" t="n">
-        <v>1821.703844341779</v>
+        <v>1821.70384434178</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.012229441907</v>
+        <v>2088.012229441908</v>
       </c>
       <c r="Q43" t="n">
-        <v>2205.615960229127</v>
+        <v>2205.615960229126</v>
       </c>
       <c r="R43" t="n">
-        <v>2163.281081209851</v>
+        <v>2163.28108120985</v>
       </c>
       <c r="S43" t="n">
-        <v>2023.842090133101</v>
+        <v>2023.8420901331</v>
       </c>
       <c r="T43" t="n">
         <v>1856.592144168005</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.733781061166</v>
+        <v>1622.733781061165</v>
       </c>
       <c r="V43" t="n">
-        <v>1423.303208273255</v>
+        <v>1423.303208273254</v>
       </c>
       <c r="W43" t="n">
-        <v>1189.13995365427</v>
+        <v>1189.139953654269</v>
       </c>
       <c r="X43" t="n">
         <v>1016.404318174228</v>
       </c>
       <c r="Y43" t="n">
-        <v>850.8656544486738</v>
+        <v>850.8656544486734</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1043.028390446998</v>
       </c>
       <c r="F44" t="n">
-        <v>687.2964010753658</v>
+        <v>687.2964010753661</v>
       </c>
       <c r="G44" t="n">
-        <v>327.093202567497</v>
+        <v>327.0932025674974</v>
       </c>
       <c r="H44" t="n">
-        <v>80.82407975111586</v>
+        <v>80.82407975111579</v>
       </c>
       <c r="I44" t="n">
         <v>79.25134638321555</v>
       </c>
       <c r="J44" t="n">
-        <v>236.1323129705672</v>
+        <v>403.5379619909202</v>
       </c>
       <c r="K44" t="n">
-        <v>521.9947329356955</v>
+        <v>689.4003819560485</v>
       </c>
       <c r="L44" t="n">
-        <v>1114.815749397113</v>
+        <v>1494.424355869962</v>
       </c>
       <c r="M44" t="n">
-        <v>2027.166577363068</v>
+        <v>1961.756785678013</v>
       </c>
       <c r="N44" t="n">
-        <v>2939.648198013123</v>
+        <v>2441.264951160204</v>
       </c>
       <c r="O44" t="n">
-        <v>3379.09890017978</v>
+        <v>3257.707832776979</v>
       </c>
       <c r="P44" t="n">
-        <v>3719.658906568745</v>
+        <v>3598.267839165944</v>
       </c>
       <c r="Q44" t="n">
-        <v>3927.232541800719</v>
+        <v>3862.173286126466</v>
       </c>
       <c r="R44" t="n">
-        <v>3962.567319160778</v>
+        <v>3962.567319160777</v>
       </c>
       <c r="S44" t="n">
-        <v>3898.765040427811</v>
+        <v>3898.76504042781</v>
       </c>
       <c r="T44" t="n">
         <v>3746.357342573152</v>
@@ -7687,10 +7687,10 @@
         <v>3272.241036237702</v>
       </c>
       <c r="W44" t="n">
-        <v>2974.726296385564</v>
+        <v>2974.726296385563</v>
       </c>
       <c r="X44" t="n">
-        <v>2656.51445354246</v>
+        <v>2656.514453542459</v>
       </c>
       <c r="Y44" t="n">
         <v>2321.629036984623</v>
@@ -7727,25 +7727,25 @@
         <v>79.25134638321555</v>
       </c>
       <c r="J45" t="n">
-        <v>153.8707283834352</v>
+        <v>260.73274977684</v>
       </c>
       <c r="K45" t="n">
-        <v>359.5619621470341</v>
+        <v>466.4239835404389</v>
       </c>
       <c r="L45" t="n">
-        <v>682.4617509722041</v>
+        <v>789.3237723656089</v>
       </c>
       <c r="M45" t="n">
-        <v>1078.627442504335</v>
+        <v>1185.48946389774</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.525642231158</v>
+        <v>1606.549127372667</v>
       </c>
       <c r="O45" t="n">
-        <v>2177.493178429696</v>
+        <v>1969.516663571205</v>
       </c>
       <c r="P45" t="n">
-        <v>2449.473559768993</v>
+        <v>2241.497044910502</v>
       </c>
       <c r="Q45" t="n">
         <v>2581.366045528469</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.4711050364091</v>
+        <v>724.4711050364106</v>
       </c>
       <c r="C46" t="n">
-        <v>610.7888375264779</v>
+        <v>610.7888375264781</v>
       </c>
       <c r="D46" t="n">
-        <v>515.9261135321178</v>
+        <v>515.9261135321182</v>
       </c>
       <c r="E46" t="n">
-        <v>423.2669353677004</v>
+        <v>423.2669353677009</v>
       </c>
       <c r="F46" t="n">
-        <v>331.6309032877657</v>
+        <v>331.6309032877663</v>
       </c>
       <c r="G46" t="n">
-        <v>219.0094351553844</v>
+        <v>219.009435155385</v>
       </c>
       <c r="H46" t="n">
-        <v>126.5120647664514</v>
+        <v>126.5120647664521</v>
       </c>
       <c r="I46" t="n">
         <v>79.25134638321555</v>
       </c>
       <c r="J46" t="n">
-        <v>166.5720351737344</v>
+        <v>166.5720351737345</v>
       </c>
       <c r="K46" t="n">
-        <v>405.0656967747519</v>
+        <v>405.065696774752</v>
       </c>
       <c r="L46" t="n">
-        <v>750.6373309273151</v>
+        <v>750.6373309273154</v>
       </c>
       <c r="M46" t="n">
         <v>1122.439469762874</v>
@@ -7824,34 +7824,34 @@
         <v>1821.70384434178</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.012229441908</v>
+        <v>2088.012229441909</v>
       </c>
       <c r="Q46" t="n">
-        <v>2205.615960229126</v>
+        <v>2205.615960229127</v>
       </c>
       <c r="R46" t="n">
-        <v>2163.28108120985</v>
+        <v>2163.281081209851</v>
       </c>
       <c r="S46" t="n">
-        <v>2023.8420901331</v>
+        <v>2023.842090133101</v>
       </c>
       <c r="T46" t="n">
-        <v>1856.592144168005</v>
+        <v>1856.592144168006</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.733781061165</v>
+        <v>1622.733781061166</v>
       </c>
       <c r="V46" t="n">
-        <v>1423.303208273254</v>
+        <v>1423.303208273255</v>
       </c>
       <c r="W46" t="n">
-        <v>1189.139953654269</v>
+        <v>1189.13995365427</v>
       </c>
       <c r="X46" t="n">
-        <v>1016.404318174228</v>
+        <v>1016.404318174229</v>
       </c>
       <c r="Y46" t="n">
-        <v>850.8656544486731</v>
+        <v>850.8656544486745</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,16 +8701,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>253.1465892487816</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.5983730082801</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>107.941435750914</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>191.9276881463548</v>
       </c>
       <c r="R12" t="n">
         <v>12.79360114685505</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>203.3147928812613</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>209.4180949983754</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>53.55348647418461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>191.9276881463543</v>
       </c>
       <c r="R15" t="n">
         <v>12.79360114685505</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>253.1465892487803</v>
+        <v>34.21817770918892</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.018723486763</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>191.9276881463543</v>
       </c>
       <c r="R18" t="n">
         <v>12.79360114685505</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>63.43094878068638</v>
       </c>
       <c r="K20" t="n">
-        <v>321.2485169096345</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>53.55348647418464</v>
+        <v>159.1996194818886</v>
       </c>
       <c r="R21" t="n">
-        <v>12.79360114685505</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>136.0536330045579</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.9038875707223</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>53.55348647418461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.1996194818886</v>
       </c>
       <c r="R24" t="n">
-        <v>12.79360114685505</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>7.220898659006366</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>301.0354067953245</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>107.9414357509141</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>318.0187234867634</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>12.79360114685505</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>242.0339337040621</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>16.13653529973629</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>318.0187234867634</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.1996194818886</v>
       </c>
       <c r="R30" t="n">
-        <v>12.79360114685505</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>242.0339337040621</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10366,10 +10366,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>123.2347450234423</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>56.90081992782621</v>
       </c>
       <c r="N35" t="n">
-        <v>223.0005027427956</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>318.0187234867631</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>53.55348647418464</v>
       </c>
       <c r="R36" t="n">
         <v>12.79360114685505</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>253.1465892487811</v>
+        <v>56.90081992782638</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>159.1996194818887</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>318.018723486763</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>12.79360114685505</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>291.7138549728828</v>
+        <v>321.2485169096345</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>107.941435750914</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.018723486763</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>12.79360114685505</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>203.3147928812621</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>56.90081992782635</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>107.941435750914</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>318.0187234867632</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>12.79360114685505</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.428190898877801e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.428190898877801e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>69.83508258307823</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.2737729488396</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>96.61290649287952</v>
       </c>
       <c r="S28" t="n">
         <v>192.7459774297778</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.2788227692406</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>251.5236456899607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.1966297148534</v>
       </c>
       <c r="H31" t="n">
         <v>146.2737729488396</v>
@@ -24888,16 +24888,16 @@
         <v>96.61290649287952</v>
       </c>
       <c r="S31" t="n">
-        <v>192.7459774297778</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.2788227692406</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>106.2531204382569</v>
+        <v>134.4966375703267</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>77.23018546973563</v>
+        <v>166.1966297148534</v>
       </c>
       <c r="H34" t="n">
         <v>146.2737729488396</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>96.61290649287952</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>185.8344698237939</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>821041.7698642829</v>
       </c>
-      <c r="E2" t="n">
-        <v>821041.7698642826</v>
-      </c>
       <c r="F2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642825</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642826</v>
+        <v>821041.7698642823</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642827</v>
+        <v>821041.7698642825</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642825</v>
       </c>
       <c r="J2" t="n">
-        <v>789742.7801547658</v>
+        <v>789742.7801547657</v>
       </c>
       <c r="K2" t="n">
         <v>789742.7801547657</v>
@@ -26346,16 +26346,16 @@
         <v>789742.7801547659</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642825</v>
+        <v>821041.7698642826</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642823</v>
+        <v>821041.7698642827</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118379.5425185738</v>
+        <v>118379.5425185737</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>177881.881934125</v>
+        <v>177881.8819341253</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
+        <v>84235.98720722261</v>
+      </c>
+      <c r="F4" t="n">
+        <v>84235.98720722261</v>
+      </c>
+      <c r="G4" t="n">
+        <v>84235.9872072226</v>
+      </c>
+      <c r="H4" t="n">
+        <v>84235.98720722261</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84235.98720722261</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44051.6081075181</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44051.60810751808</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44051.60810751809</v>
+      </c>
+      <c r="M4" t="n">
+        <v>84235.98720722266</v>
+      </c>
+      <c r="N4" t="n">
         <v>84235.98720722267</v>
       </c>
-      <c r="F4" t="n">
-        <v>84235.98720722264</v>
-      </c>
-      <c r="G4" t="n">
-        <v>84235.98720722264</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="O4" t="n">
         <v>84235.98720722266</v>
       </c>
-      <c r="I4" t="n">
-        <v>84235.98720722264</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44051.60810751808</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44051.60810751809</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44051.60810751807</v>
-      </c>
-      <c r="M4" t="n">
-        <v>84235.98720722264</v>
-      </c>
-      <c r="N4" t="n">
-        <v>84235.98720722261</v>
-      </c>
-      <c r="O4" t="n">
-        <v>84235.9872072226</v>
-      </c>
       <c r="P4" t="n">
-        <v>84235.98720722261</v>
+        <v>84235.98720722266</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>86521.76921660444</v>
       </c>
       <c r="F5" t="n">
-        <v>86521.76921660441</v>
+        <v>86521.76921660444</v>
       </c>
       <c r="G5" t="n">
-        <v>86521.76921660441</v>
+        <v>86521.76921660444</v>
       </c>
       <c r="H5" t="n">
-        <v>86521.76921660441</v>
+        <v>86521.76921660444</v>
       </c>
       <c r="I5" t="n">
-        <v>86521.76921660441</v>
+        <v>86521.76921660444</v>
       </c>
       <c r="J5" t="n">
-        <v>94778.07178211445</v>
+        <v>94778.07178211446</v>
       </c>
       <c r="K5" t="n">
         <v>94778.07178211445</v>
@@ -26502,10 +26502,10 @@
         <v>94778.07178211445</v>
       </c>
       <c r="M5" t="n">
-        <v>86521.76921660444</v>
+        <v>86521.76921660443</v>
       </c>
       <c r="N5" t="n">
-        <v>86521.76921660444</v>
+        <v>86521.76921660443</v>
       </c>
       <c r="O5" t="n">
         <v>86521.76921660443</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337557.8022920646</v>
+        <v>337557.8022920645</v>
       </c>
       <c r="C6" t="n">
-        <v>418327.233823612</v>
+        <v>418327.2338236122</v>
       </c>
       <c r="D6" t="n">
-        <v>418327.233823612</v>
+        <v>418327.2338236123</v>
       </c>
       <c r="E6" t="n">
-        <v>-416724.280299419</v>
+        <v>-416724.2802994185</v>
       </c>
       <c r="F6" t="n">
-        <v>650284.0134404558</v>
+        <v>650284.0134404554</v>
       </c>
       <c r="G6" t="n">
-        <v>650284.0134404555</v>
+        <v>650284.0134404553</v>
       </c>
       <c r="H6" t="n">
-        <v>650284.0134404557</v>
+        <v>650284.0134404554</v>
       </c>
       <c r="I6" t="n">
-        <v>650284.0134404562</v>
+        <v>650284.0134404554</v>
       </c>
       <c r="J6" t="n">
-        <v>532533.5577465595</v>
+        <v>531751.0830038215</v>
       </c>
       <c r="K6" t="n">
-        <v>650913.1002651332</v>
+        <v>650130.6255223952</v>
       </c>
       <c r="L6" t="n">
-        <v>650913.1002651334</v>
+        <v>650130.6255223955</v>
       </c>
       <c r="M6" t="n">
         <v>472402.1315063303</v>
       </c>
       <c r="N6" t="n">
-        <v>650284.0134404559</v>
+        <v>650284.0134404564</v>
       </c>
       <c r="O6" t="n">
         <v>650284.0134404564</v>
       </c>
       <c r="P6" t="n">
-        <v>650284.0134404553</v>
+        <v>650284.0134404557</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>54.70137626379592</v>
+      </c>
+      <c r="F2" t="n">
+        <v>54.70137626379592</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54.70137626379592</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54.70137626379592</v>
+      </c>
+      <c r="I2" t="n">
+        <v>54.70137626379592</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>54.70137626379599</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>54.70137626379599</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>54.70137626379599</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>54.70137626379599</v>
-      </c>
-      <c r="I2" t="n">
-        <v>54.70137626379599</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54.70137626379596</v>
-      </c>
-      <c r="N2" t="n">
-        <v>54.70137626379596</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54.70137626379593</v>
-      </c>
-      <c r="P2" t="n">
-        <v>54.70137626379593</v>
       </c>
     </row>
     <row r="3">
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0484387265851</v>
+        <v>995.048438726585</v>
       </c>
       <c r="F3" t="n">
         <v>995.0484387265851</v>
@@ -26801,16 +26801,16 @@
         <v>990.6418297901945</v>
       </c>
       <c r="F4" t="n">
-        <v>990.6418297901942</v>
+        <v>990.6418297901945</v>
       </c>
       <c r="G4" t="n">
-        <v>990.6418297901942</v>
+        <v>990.6418297901945</v>
       </c>
       <c r="H4" t="n">
-        <v>990.6418297901942</v>
+        <v>990.6418297901945</v>
       </c>
       <c r="I4" t="n">
-        <v>990.6418297901942</v>
+        <v>990.6418297901945</v>
       </c>
       <c r="J4" t="n">
         <v>1202.072628583469</v>
@@ -26822,16 +26822,16 @@
         <v>1202.072628583469</v>
       </c>
       <c r="M4" t="n">
-        <v>990.6418297901944</v>
+        <v>990.6418297901943</v>
       </c>
       <c r="N4" t="n">
-        <v>990.6418297901944</v>
+        <v>990.6418297901943</v>
       </c>
       <c r="O4" t="n">
-        <v>990.6418297901944</v>
+        <v>990.6418297901943</v>
       </c>
       <c r="P4" t="n">
-        <v>990.6418297901944</v>
+        <v>990.6418297901943</v>
       </c>
     </row>
   </sheetData>
@@ -26916,31 +26916,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>54.70137626379592</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>54.70137626379599</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54.70137626379596</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0484387265851</v>
+        <v>995.048438726585</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.6275409125354</v>
+        <v>749.6275409125353</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>452.4450876709338</v>
+        <v>452.4450876709335</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>538.1967421192609</v>
+        <v>538.1967421192616</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.6275409125354</v>
+        <v>749.6275409125353</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>173.9053283721385</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>348.4813272950487</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27469,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27481,7 +27481,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>14.15885273436891</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>116.7009342280812</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27624,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27672,16 +27672,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>3.367607014311616</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27906,19 +27906,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266928</v>
+        <v>141.667205339169</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>54.67141363984715</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,7 +27988,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="K13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="L13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="M13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="N13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="O13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="P13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="R13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="S13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y13" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="K16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="L16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="M16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="N16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="O16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="P16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="R16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="S16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y16" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y17" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="K19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="L19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="M19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="N19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="O19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="P19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="R19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="S19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="K22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="L22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="M22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="N22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="O22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="P22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="R22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="S22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y23" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="C25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="D25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="E25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="F25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="G25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="H25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="I25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="J25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="K25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="L25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="M25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="N25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="O25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="P25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="R25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="S25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="T25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="U25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="V25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="W25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="X25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.70137626379599</v>
+        <v>54.70137626379592</v>
       </c>
     </row>
     <row r="26">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y35" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="K37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="L37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="M37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="N37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="O37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="P37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="R37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="S37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379591</v>
       </c>
       <c r="C38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U38" t="n">
-        <v>54.70137626379545</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y38" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="K40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="L40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="M40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="N40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="O40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="P40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="R40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="S40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.70137626379596</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y41" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="K43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="L43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="M43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="N43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="O43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="P43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="R43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="S43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="C46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="D46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="E46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="F46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="G46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="H46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="I46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="J46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="K46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="L46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="M46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="N46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="O46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="P46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="R46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="S46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="T46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="U46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="V46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="W46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="X46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.70137626379593</v>
+        <v>54.70137626379599</v>
       </c>
     </row>
   </sheetData>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.000194728549083</v>
+        <v>4.000194728549082</v>
       </c>
       <c r="H11" t="n">
-        <v>40.96699426375331</v>
+        <v>40.9669942637533</v>
       </c>
       <c r="I11" t="n">
-        <v>154.2175072723887</v>
+        <v>154.2175072723886</v>
       </c>
       <c r="J11" t="n">
         <v>339.511527342193</v>
@@ -31767,7 +31767,7 @@
         <v>508.8397702016758</v>
       </c>
       <c r="L11" t="n">
-        <v>631.26072962551</v>
+        <v>631.2607296255098</v>
       </c>
       <c r="M11" t="n">
         <v>702.3991926293446</v>
@@ -31782,10 +31782,10 @@
         <v>575.2330022087692</v>
       </c>
       <c r="Q11" t="n">
-        <v>431.9760284926051</v>
+        <v>431.976028492605</v>
       </c>
       <c r="R11" t="n">
-        <v>251.2772321172216</v>
+        <v>251.2772321172215</v>
       </c>
       <c r="S11" t="n">
         <v>91.15443737681231</v>
@@ -31794,7 +31794,7 @@
         <v>17.51085242422362</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3200155782839266</v>
+        <v>0.3200155782839265</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>2.140292868204353</v>
       </c>
       <c r="H12" t="n">
-        <v>20.67072322713152</v>
+        <v>20.67072322713151</v>
       </c>
       <c r="I12" t="n">
-        <v>73.689907962299</v>
+        <v>73.68990796229899</v>
       </c>
       <c r="J12" t="n">
         <v>202.2107397982016</v>
@@ -31846,19 +31846,19 @@
         <v>345.6103619678933</v>
       </c>
       <c r="L12" t="n">
-        <v>464.7157826335812</v>
+        <v>464.7157826335811</v>
       </c>
       <c r="M12" t="n">
-        <v>542.3013991059888</v>
+        <v>542.3013991059887</v>
       </c>
       <c r="N12" t="n">
         <v>556.6545034721488</v>
       </c>
       <c r="O12" t="n">
-        <v>509.2301193924629</v>
+        <v>509.2301193924628</v>
       </c>
       <c r="P12" t="n">
-        <v>408.702065332812</v>
+        <v>408.7020653328119</v>
       </c>
       <c r="Q12" t="n">
         <v>273.2065071764013</v>
@@ -31870,7 +31870,7 @@
         <v>39.75500130195363</v>
       </c>
       <c r="T12" t="n">
-        <v>8.626882218771051</v>
+        <v>8.626882218771049</v>
       </c>
       <c r="U12" t="n">
         <v>0.1408087413292338</v>
@@ -31916,7 +31916,7 @@
         <v>15.95339955860001</v>
       </c>
       <c r="I13" t="n">
-        <v>53.9609874640581</v>
+        <v>53.96098746405809</v>
       </c>
       <c r="J13" t="n">
         <v>126.8605198028959</v>
@@ -31925,13 +31925,13 @@
         <v>208.4708040479632</v>
       </c>
       <c r="L13" t="n">
-        <v>266.7708551956488</v>
+        <v>266.7708551956487</v>
       </c>
       <c r="M13" t="n">
         <v>281.2724627698771</v>
       </c>
       <c r="N13" t="n">
-        <v>274.5844322800757</v>
+        <v>274.5844322800756</v>
       </c>
       <c r="O13" t="n">
         <v>253.623165988868</v>
@@ -31949,7 +31949,7 @@
         <v>31.27062060719447</v>
       </c>
       <c r="T13" t="n">
-        <v>7.666766659040899</v>
+        <v>7.666766659040898</v>
       </c>
       <c r="U13" t="n">
         <v>0.0978736169239265</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>158.4656228155067</v>
       </c>
       <c r="K11" t="n">
-        <v>288.7499191566953</v>
+        <v>288.7499191566952</v>
       </c>
       <c r="L11" t="n">
-        <v>395.4943146555227</v>
+        <v>395.4943146555226</v>
       </c>
       <c r="M11" t="n">
         <v>921.5664928949044</v>
       </c>
       <c r="N11" t="n">
-        <v>737.4982715540255</v>
+        <v>921.698606717228</v>
       </c>
       <c r="O11" t="n">
         <v>443.889598148138</v>
       </c>
       <c r="P11" t="n">
-        <v>665.7987146249823</v>
+        <v>344.0000064534997</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.6703386181556</v>
+        <v>347.2687116264356</v>
       </c>
       <c r="R11" t="n">
-        <v>101.4081141760719</v>
+        <v>101.4081141760718</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>75.37311313153495</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K12" t="n">
         <v>207.7689229935343</v>
       </c>
       <c r="L12" t="n">
-        <v>326.161402853707</v>
+        <v>326.1614028537069</v>
       </c>
       <c r="M12" t="n">
-        <v>400.1673651839705</v>
+        <v>400.1673651839704</v>
       </c>
       <c r="N12" t="n">
         <v>425.3127913888155</v>
       </c>
       <c r="O12" t="n">
-        <v>474.5753106989324</v>
+        <v>366.6338749480183</v>
       </c>
       <c r="P12" t="n">
         <v>274.7276579184817</v>
       </c>
       <c r="Q12" t="n">
-        <v>343.3020208262289</v>
+        <v>325.1524212367345</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20271595001914</v>
+        <v>88.20271595001905</v>
       </c>
       <c r="K13" t="n">
-        <v>240.9026884858763</v>
+        <v>240.9026884858762</v>
       </c>
       <c r="L13" t="n">
-        <v>349.0622567197609</v>
+        <v>349.0622567197608</v>
       </c>
       <c r="M13" t="n">
-        <v>375.5577159955137</v>
+        <v>375.5577159955135</v>
       </c>
       <c r="N13" t="n">
-        <v>373.4179809231003</v>
+        <v>373.4179809231002</v>
       </c>
       <c r="O13" t="n">
-        <v>332.9096701667037</v>
+        <v>332.9096701667036</v>
       </c>
       <c r="P13" t="n">
-        <v>268.9983687880089</v>
+        <v>268.9983687880087</v>
       </c>
       <c r="Q13" t="n">
         <v>118.7916472598159</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K14" t="n">
-        <v>288.7499191566953</v>
+        <v>612.89533172786</v>
       </c>
       <c r="L14" t="n">
         <v>395.4943146555227</v>
       </c>
       <c r="M14" t="n">
-        <v>921.5664928949044</v>
+        <v>472.0529594020719</v>
       </c>
       <c r="N14" t="n">
-        <v>921.698606717228</v>
+        <v>484.3516823052439</v>
       </c>
       <c r="O14" t="n">
-        <v>647.2043910293993</v>
+        <v>443.889598148138</v>
       </c>
       <c r="P14" t="n">
-        <v>344.0000064534997</v>
+        <v>665.7987146249823</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.6703386181556</v>
+        <v>419.0884336165309</v>
       </c>
       <c r="R14" t="n">
-        <v>35.69169430308943</v>
+        <v>101.4081141760719</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>128.9265996057196</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K15" t="n">
-        <v>472.2341600061129</v>
+        <v>207.7689229935343</v>
       </c>
       <c r="L15" t="n">
         <v>326.161402853707</v>
@@ -35746,7 +35746,7 @@
         <v>274.7276579184817</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.2247330903798</v>
+        <v>325.1524212367341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20271595001914</v>
+        <v>88.20271595001907</v>
       </c>
       <c r="K16" t="n">
-        <v>240.9026884858763</v>
+        <v>240.9026884858762</v>
       </c>
       <c r="L16" t="n">
         <v>349.0622567197609</v>
       </c>
       <c r="M16" t="n">
-        <v>375.5577159955137</v>
+        <v>375.5577159955136</v>
       </c>
       <c r="N16" t="n">
-        <v>373.4179809231003</v>
+        <v>373.4179809231002</v>
       </c>
       <c r="O16" t="n">
-        <v>332.9096701667037</v>
+        <v>332.9096701667036</v>
       </c>
       <c r="P16" t="n">
-        <v>268.9983687880089</v>
+        <v>268.9983687880088</v>
       </c>
       <c r="Q16" t="n">
         <v>118.7916472598159</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K17" t="n">
         <v>288.7499191566953</v>
@@ -35895,19 +35895,19 @@
         <v>921.5664928949044</v>
       </c>
       <c r="N17" t="n">
-        <v>484.3516823052439</v>
+        <v>921.698606717228</v>
       </c>
       <c r="O17" t="n">
-        <v>697.0361873969183</v>
+        <v>478.1077758573269</v>
       </c>
       <c r="P17" t="n">
-        <v>665.7987146249823</v>
+        <v>344.0000064534997</v>
       </c>
       <c r="Q17" t="n">
         <v>209.6703386181556</v>
       </c>
       <c r="R17" t="n">
-        <v>101.4081141760719</v>
+        <v>35.69169430308943</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>75.37311313153495</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K18" t="n">
         <v>207.7689229935343</v>
@@ -35980,10 +35980,10 @@
         <v>366.6338749480184</v>
       </c>
       <c r="P18" t="n">
-        <v>592.7463814052447</v>
+        <v>274.7276579184817</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.2247330903798</v>
+        <v>325.1524212367341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20271595001914</v>
+        <v>88.20271595001907</v>
       </c>
       <c r="K19" t="n">
-        <v>240.9026884858763</v>
+        <v>240.9026884858762</v>
       </c>
       <c r="L19" t="n">
         <v>349.0622567197609</v>
       </c>
       <c r="M19" t="n">
-        <v>375.5577159955137</v>
+        <v>375.5577159955136</v>
       </c>
       <c r="N19" t="n">
-        <v>373.4179809231003</v>
+        <v>373.4179809231002</v>
       </c>
       <c r="O19" t="n">
-        <v>332.9096701667037</v>
+        <v>332.9096701667036</v>
       </c>
       <c r="P19" t="n">
-        <v>268.9983687880089</v>
+        <v>268.9983687880088</v>
       </c>
       <c r="Q19" t="n">
         <v>118.7916472598159</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>327.5622379875805</v>
+        <v>221.8965715961931</v>
       </c>
       <c r="K20" t="n">
-        <v>609.9984360663298</v>
+        <v>612.89533172786</v>
       </c>
       <c r="L20" t="n">
         <v>395.4943146555227</v>
@@ -36135,16 +36135,16 @@
         <v>484.3516823052439</v>
       </c>
       <c r="O20" t="n">
-        <v>443.889598148138</v>
+        <v>824.6897794108834</v>
       </c>
       <c r="P20" t="n">
         <v>665.7987146249823</v>
       </c>
       <c r="Q20" t="n">
-        <v>421.9853292780602</v>
+        <v>209.6703386181556</v>
       </c>
       <c r="R20" t="n">
-        <v>101.4081141760719</v>
+        <v>35.69169430308943</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>75.37311313153495</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K21" t="n">
-        <v>472.2341600061129</v>
+        <v>207.7689229935343</v>
       </c>
       <c r="L21" t="n">
         <v>326.161402853707</v>
@@ -36220,10 +36220,10 @@
         <v>274.7276579184817</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7782195645644</v>
+        <v>292.4243525722684</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>32.72806866446577</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20271595001914</v>
+        <v>88.20271595001907</v>
       </c>
       <c r="K22" t="n">
-        <v>240.9026884858763</v>
+        <v>240.9026884858762</v>
       </c>
       <c r="L22" t="n">
         <v>349.0622567197609</v>
       </c>
       <c r="M22" t="n">
-        <v>375.5577159955137</v>
+        <v>375.5577159955136</v>
       </c>
       <c r="N22" t="n">
-        <v>373.4179809231003</v>
+        <v>373.4179809231002</v>
       </c>
       <c r="O22" t="n">
-        <v>332.9096701667037</v>
+        <v>332.9096701667036</v>
       </c>
       <c r="P22" t="n">
-        <v>268.9983687880089</v>
+        <v>268.9983687880088</v>
       </c>
       <c r="Q22" t="n">
         <v>118.7916472598159</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K23" t="n">
-        <v>612.89533172786</v>
+        <v>288.7499191566953</v>
       </c>
       <c r="L23" t="n">
         <v>813.1555292059732</v>
       </c>
       <c r="M23" t="n">
-        <v>472.0529594020719</v>
+        <v>921.5664928949044</v>
       </c>
       <c r="N23" t="n">
-        <v>620.4053153098017</v>
+        <v>484.3516823052439</v>
       </c>
       <c r="O23" t="n">
         <v>443.889598148138</v>
@@ -36378,10 +36378,10 @@
         <v>344.0000064534997</v>
       </c>
       <c r="Q23" t="n">
-        <v>421.9853292780602</v>
+        <v>209.6703386181556</v>
       </c>
       <c r="R23" t="n">
-        <v>35.69169430308943</v>
+        <v>89.59558187381174</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>128.9265996057196</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K24" t="n">
-        <v>472.2341600061129</v>
+        <v>207.7689229935343</v>
       </c>
       <c r="L24" t="n">
         <v>326.161402853707</v>
@@ -36457,10 +36457,10 @@
         <v>274.7276579184817</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.2247330903798</v>
+        <v>292.4243525722684</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>32.72806866446577</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20271595001914</v>
+        <v>88.20271595001907</v>
       </c>
       <c r="K25" t="n">
-        <v>240.9026884858763</v>
+        <v>240.9026884858762</v>
       </c>
       <c r="L25" t="n">
         <v>349.0622567197609</v>
       </c>
       <c r="M25" t="n">
-        <v>375.5577159955137</v>
+        <v>375.5577159955136</v>
       </c>
       <c r="N25" t="n">
-        <v>373.4179809231003</v>
+        <v>373.4179809231002</v>
       </c>
       <c r="O25" t="n">
-        <v>332.9096701667037</v>
+        <v>332.9096701667036</v>
       </c>
       <c r="P25" t="n">
-        <v>268.9983687880089</v>
+        <v>268.9983687880088</v>
       </c>
       <c r="Q25" t="n">
         <v>118.7916472598159</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7499191566953</v>
+        <v>295.9708178157017</v>
       </c>
       <c r="L26" t="n">
         <v>813.1555292059732</v>
@@ -36609,16 +36609,16 @@
         <v>921.698606717228</v>
       </c>
       <c r="O26" t="n">
-        <v>744.9250049434626</v>
+        <v>824.6897794108834</v>
       </c>
       <c r="P26" t="n">
-        <v>665.7987146249823</v>
+        <v>344.0000064534997</v>
       </c>
       <c r="Q26" t="n">
         <v>209.6703386181556</v>
       </c>
       <c r="R26" t="n">
-        <v>35.69169430308943</v>
+        <v>101.4081141760719</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>75.37311313153495</v>
+        <v>183.3145488824491</v>
       </c>
       <c r="K27" t="n">
         <v>207.7689229935343</v>
@@ -36685,7 +36685,7 @@
         <v>400.1673651839705</v>
       </c>
       <c r="N27" t="n">
-        <v>743.3315148755789</v>
+        <v>425.3127913888155</v>
       </c>
       <c r="O27" t="n">
         <v>366.6338749480184</v>
@@ -36694,7 +36694,7 @@
         <v>274.7276579184817</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.2247330903798</v>
+        <v>343.3020208262289</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K29" t="n">
-        <v>530.7838528607574</v>
+        <v>612.89533172786</v>
       </c>
       <c r="L29" t="n">
-        <v>813.1555292059732</v>
+        <v>411.630849955259</v>
       </c>
       <c r="M29" t="n">
-        <v>921.5664928949044</v>
+        <v>472.0529594020719</v>
       </c>
       <c r="N29" t="n">
         <v>921.698606717228</v>
@@ -36849,13 +36849,13 @@
         <v>824.6897794108834</v>
       </c>
       <c r="P29" t="n">
-        <v>344.0000064534997</v>
+        <v>665.7987146249823</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.6703386181556</v>
+        <v>421.9853292780602</v>
       </c>
       <c r="R29" t="n">
-        <v>35.69169430308943</v>
+        <v>101.4081141760719</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>75.37311313153495</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K30" t="n">
         <v>207.7689229935343</v>
@@ -36922,7 +36922,7 @@
         <v>400.1673651839705</v>
       </c>
       <c r="N30" t="n">
-        <v>743.3315148755789</v>
+        <v>425.3127913888155</v>
       </c>
       <c r="O30" t="n">
         <v>366.6338749480184</v>
@@ -36931,10 +36931,10 @@
         <v>274.7276579184817</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.2247330903798</v>
+        <v>292.4243525722684</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>32.72806866446577</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>158.4656228155067</v>
       </c>
       <c r="K32" t="n">
-        <v>612.89533172786</v>
+        <v>530.7838528607574</v>
       </c>
       <c r="L32" t="n">
-        <v>395.4943146555227</v>
+        <v>813.1555292059732</v>
       </c>
       <c r="M32" t="n">
         <v>921.5664928949044</v>
@@ -37086,10 +37086,10 @@
         <v>824.6897794108834</v>
       </c>
       <c r="P32" t="n">
-        <v>467.2347514769419</v>
+        <v>344.0000064534997</v>
       </c>
       <c r="Q32" t="n">
-        <v>421.9853292780602</v>
+        <v>209.6703386181556</v>
       </c>
       <c r="R32" t="n">
         <v>35.69169430308943</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K35" t="n">
         <v>288.7499191566953</v>
@@ -37314,13 +37314,13 @@
         <v>813.1555292059732</v>
       </c>
       <c r="M35" t="n">
-        <v>921.5664928949044</v>
+        <v>528.9537793298981</v>
       </c>
       <c r="N35" t="n">
-        <v>707.3521850480395</v>
+        <v>484.3516823052439</v>
       </c>
       <c r="O35" t="n">
-        <v>443.889598148138</v>
+        <v>824.6897794108834</v>
       </c>
       <c r="P35" t="n">
         <v>344.0000064534997</v>
@@ -37329,7 +37329,7 @@
         <v>209.6703386181556</v>
       </c>
       <c r="R35" t="n">
-        <v>35.69169430308943</v>
+        <v>101.4081141760719</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>75.37311313153495</v>
       </c>
       <c r="K36" t="n">
-        <v>207.7689229935343</v>
+        <v>472.2341600061129</v>
       </c>
       <c r="L36" t="n">
         <v>326.161402853707</v>
@@ -37399,13 +37399,13 @@
         <v>425.3127913888155</v>
       </c>
       <c r="O36" t="n">
-        <v>684.6525984347816</v>
+        <v>366.6338749480184</v>
       </c>
       <c r="P36" t="n">
         <v>274.7276579184817</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.2247330903798</v>
+        <v>186.7782195645644</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.2027159500191</v>
+        <v>88.20271595001914</v>
       </c>
       <c r="K37" t="n">
         <v>240.9026884858763</v>
@@ -37475,13 +37475,13 @@
         <v>375.5577159955137</v>
       </c>
       <c r="N37" t="n">
-        <v>373.4179809231002</v>
+        <v>373.4179809231003</v>
       </c>
       <c r="O37" t="n">
         <v>332.9096701667037</v>
       </c>
       <c r="P37" t="n">
-        <v>268.9983687880088</v>
+        <v>268.9983687880089</v>
       </c>
       <c r="Q37" t="n">
         <v>118.7916472598159</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K38" t="n">
         <v>288.7499191566953</v>
       </c>
       <c r="L38" t="n">
-        <v>395.4943146555227</v>
+        <v>813.1555292059732</v>
       </c>
       <c r="M38" t="n">
-        <v>921.5664928949044</v>
+        <v>472.0529594020719</v>
       </c>
       <c r="N38" t="n">
-        <v>737.498271554025</v>
+        <v>541.2525022330702</v>
       </c>
       <c r="O38" t="n">
-        <v>443.889598148138</v>
+        <v>824.6897794108834</v>
       </c>
       <c r="P38" t="n">
-        <v>665.7987146249823</v>
+        <v>344.0000064534997</v>
       </c>
       <c r="Q38" t="n">
         <v>209.6703386181556</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.37311313153495</v>
+        <v>201.4641484719438</v>
       </c>
       <c r="K39" t="n">
-        <v>207.7689229935343</v>
+        <v>366.968542475423</v>
       </c>
       <c r="L39" t="n">
         <v>326.161402853707</v>
       </c>
       <c r="M39" t="n">
-        <v>718.1860886707335</v>
+        <v>400.1673651839705</v>
       </c>
       <c r="N39" t="n">
         <v>425.3127913888155</v>
@@ -37645,7 +37645,7 @@
         <v>133.2247330903798</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>32.72806866446577</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20271595001911</v>
+        <v>88.20271595001914</v>
       </c>
       <c r="K40" t="n">
         <v>240.9026884858763</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K41" t="n">
-        <v>580.463774129578</v>
+        <v>609.9984360663298</v>
       </c>
       <c r="L41" t="n">
-        <v>813.1555292059732</v>
+        <v>395.4943146555227</v>
       </c>
       <c r="M41" t="n">
         <v>472.0529594020719</v>
@@ -37794,16 +37794,16 @@
         <v>484.3516823052439</v>
       </c>
       <c r="O41" t="n">
-        <v>824.6897794108834</v>
+        <v>443.889598148138</v>
       </c>
       <c r="P41" t="n">
-        <v>344.0000064534997</v>
+        <v>665.7987146249823</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.6703386181556</v>
+        <v>421.9853292780602</v>
       </c>
       <c r="R41" t="n">
-        <v>35.69169430308943</v>
+        <v>101.4081141760719</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>75.37311313153495</v>
+        <v>183.314548882449</v>
       </c>
       <c r="K42" t="n">
         <v>207.7689229935343</v>
@@ -37876,10 +37876,10 @@
         <v>366.6338749480184</v>
       </c>
       <c r="P42" t="n">
-        <v>592.7463814052447</v>
+        <v>274.7276579184817</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.2247330903798</v>
+        <v>343.3020208262289</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20271595001907</v>
+        <v>88.20271595001913</v>
       </c>
       <c r="K43" t="n">
         <v>240.9026884858763</v>
@@ -37946,16 +37946,16 @@
         <v>349.0622567197609</v>
       </c>
       <c r="M43" t="n">
-        <v>375.5577159955136</v>
+        <v>375.5577159955137</v>
       </c>
       <c r="N43" t="n">
-        <v>373.4179809231002</v>
+        <v>373.4179809231003</v>
       </c>
       <c r="O43" t="n">
         <v>332.9096701667037</v>
       </c>
       <c r="P43" t="n">
-        <v>268.9983687880088</v>
+        <v>268.9983687880089</v>
       </c>
       <c r="Q43" t="n">
         <v>118.7916472598159</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>158.4656228155067</v>
+        <v>327.5622379875805</v>
       </c>
       <c r="K44" t="n">
         <v>288.7499191566953</v>
       </c>
       <c r="L44" t="n">
-        <v>598.8091075367848</v>
+        <v>813.1555292059732</v>
       </c>
       <c r="M44" t="n">
-        <v>921.5664928949044</v>
+        <v>472.0529594020719</v>
       </c>
       <c r="N44" t="n">
-        <v>921.698606717228</v>
+        <v>484.3516823052439</v>
       </c>
       <c r="O44" t="n">
-        <v>443.889598148138</v>
+        <v>824.6897794108834</v>
       </c>
       <c r="P44" t="n">
         <v>344.0000064534997</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.6703386181556</v>
+        <v>266.5711585459819</v>
       </c>
       <c r="R44" t="n">
-        <v>35.69169430308943</v>
+        <v>101.4081141760719</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>75.37311313153495</v>
+        <v>183.314548882449</v>
       </c>
       <c r="K45" t="n">
         <v>207.7689229935343</v>
@@ -38107,7 +38107,7 @@
         <v>400.1673651839705</v>
       </c>
       <c r="N45" t="n">
-        <v>743.3315148755787</v>
+        <v>425.3127913888155</v>
       </c>
       <c r="O45" t="n">
         <v>366.6338749480184</v>
@@ -38116,7 +38116,7 @@
         <v>274.7276579184817</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.2247330903798</v>
+        <v>343.3020208262289</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20271595001907</v>
+        <v>88.20271595001913</v>
       </c>
       <c r="K46" t="n">
         <v>240.9026884858763</v>
@@ -38183,16 +38183,16 @@
         <v>349.0622567197609</v>
       </c>
       <c r="M46" t="n">
-        <v>375.5577159955136</v>
+        <v>375.5577159955137</v>
       </c>
       <c r="N46" t="n">
-        <v>373.4179809231002</v>
+        <v>373.4179809231003</v>
       </c>
       <c r="O46" t="n">
         <v>332.9096701667037</v>
       </c>
       <c r="P46" t="n">
-        <v>268.9983687880088</v>
+        <v>268.9983687880089</v>
       </c>
       <c r="Q46" t="n">
         <v>118.7916472598159</v>
